--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESIDENCIA\FARMACIA\PROYECTO\SPRINT 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B55B6F8D-C1E6-46C3-9476-C3CC83E254E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -727,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -761,6 +761,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +861,7 @@
   <autoFilter ref="A1:V47" xr:uid="{31206889-EDF7-4D49-B273-37A89FB21F45}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{106D291E-54E8-49A0-96F6-50E6142AD866}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{7D21149C-172A-4212-BED3-10699C22ABAD}" name="Actividades" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7D21149C-172A-4212-BED3-10699C22ABAD}" name="Actividades" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{80C4808F-223A-46CD-A4B6-6ED94854CE26}" name="1"/>
     <tableColumn id="5" xr3:uid="{70ABB989-4454-4069-B32A-BD78F94E0828}" name="2"/>
     <tableColumn id="6" xr3:uid="{6DEAFF10-7E44-403C-9769-AFBB4AB93798}" name="3"/>
@@ -891,7 +892,7 @@
   <autoFilter ref="A1:V103" xr:uid="{31206889-EDF7-4D49-B273-37A89FB21F45}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{388FFA8B-655A-428E-970B-4CD7FFD7D0F1}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{9143EEFA-8783-49E1-8D40-07B242063BA9}" name="Actividades" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9143EEFA-8783-49E1-8D40-07B242063BA9}" name="Actividades" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{619A47CA-E228-4B1B-A6F7-DC80DDF64A64}" name="1"/>
     <tableColumn id="5" xr3:uid="{C604BD32-F738-48CB-9426-6EE96F232800}" name="2"/>
     <tableColumn id="6" xr3:uid="{C2C71A1D-CDF3-4598-AD6E-F120E3264D04}" name="3"/>
@@ -3748,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91618274-D019-4406-BA70-EF6012AE3177}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,8 +3888,8 @@
       <c r="B7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -3898,8 +3899,8 @@
       <c r="B8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -3923,8 +3924,8 @@
         <v>169</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
@@ -3934,8 +3935,8 @@
         <v>151</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
@@ -3945,8 +3946,8 @@
         <v>109</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
@@ -3956,8 +3957,8 @@
         <v>149</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
@@ -3968,8 +3969,8 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="20" t="s">
         <v>179</v>
       </c>
       <c r="G14" s="15"/>
@@ -3981,8 +3982,8 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3992,8 +3993,8 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,9 +4004,11 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4014,8 +4017,8 @@
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4025,109 +4028,107 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>171</v>
+      <c r="B20" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>170</v>
+      <c r="B21" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>157</v>
+      <c r="B22" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="15" t="s">
-        <v>180</v>
-      </c>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>86</v>
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="16" t="s">
-        <v>11</v>
+      <c r="B25" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="16" t="s">
-        <v>12</v>
+      <c r="B26" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>3</v>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="16" t="s">
-        <v>5</v>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -4136,7 +4137,7 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
@@ -4147,8 +4148,8 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4157,7 +4158,8 @@
         <v>99</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -4165,7 +4167,8 @@
         <v>160</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -4173,7 +4176,8 @@
         <v>100</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -4181,7 +4185,9 @@
         <v>161</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -4193,7 +4199,8 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -4205,7 +4212,8 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -4217,7 +4225,8 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -4229,8 +4238,8 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -4242,8 +4251,8 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -4279,7 +4288,8 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -4291,7 +4301,8 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -4303,7 +4314,8 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -4341,7 +4353,7 @@
       <c r="G48" s="22"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="16" t="s">
         <v>5</v>
@@ -4350,10 +4362,11 @@
       <c r="F49" s="15"/>
       <c r="G49" s="22"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>164</v>
@@ -4362,10 +4375,10 @@
       <c r="F50" s="15"/>
       <c r="G50" s="22"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>131</v>
@@ -4374,10 +4387,10 @@
       <c r="F51" s="15"/>
       <c r="G51" s="22"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
@@ -4386,9 +4399,9 @@
       <c r="F52" s="15"/>
       <c r="G52" s="22"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>165</v>
@@ -4397,9 +4410,9 @@
       <c r="F53" s="15"/>
       <c r="G53" s="22"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>166</v>
@@ -4407,9 +4420,11 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="22"/>
-      <c r="M54" s="6"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L54" s="6"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="16" t="s">
         <v>10</v>
@@ -4417,9 +4432,10 @@
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="22"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L55" s="6"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="16" t="s">
         <v>11</v>
@@ -4427,9 +4443,10 @@
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="22"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L56" s="6"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="16" t="s">
         <v>12</v>
@@ -4437,142 +4454,119 @@
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="22"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L57" s="6"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="15"/>
-      <c r="O58" s="19"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="15"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M59" s="19"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="15"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M60" s="19"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="15"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M61" s="19"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="15"/>
-      <c r="O62" s="19"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M62" s="19"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="15"/>
-      <c r="P63" s="19"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N63" s="19"/>
+      <c r="O63" s="25"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15"/>
-      <c r="P64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="15"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
       <c r="P65" s="15"/>
-      <c r="Q65" s="19"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="15"/>
-      <c r="Q66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="15"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="15"/>
-      <c r="R67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="15"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="15"/>
-      <c r="R68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="15"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="15"/>
-      <c r="R69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="15"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="S70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="S70" s="15"/>
       <c r="V70" s="15"/>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B55B6F8D-C1E6-46C3-9476-C3CC83E254E8}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5CB39467-3D67-4D4D-B869-DD3DF7E7C505}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="CRONOGRAMA ENTREGADO act v3" sheetId="11" r:id="rId4"/>
     <sheet name="Crononograma entregado V3 perso" sheetId="14" r:id="rId5"/>
     <sheet name="CAMBIOS REVISADO DOCTORA" sheetId="6" r:id="rId6"/>
+    <sheet name="MODULOS" sheetId="15" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="227">
   <si>
     <t>Sprint</t>
   </si>
@@ -573,6 +575,153 @@
   </si>
   <si>
     <t>26/10/2020-30/10/2020</t>
+  </si>
+  <si>
+    <t>MODULO DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>Ingresar producto</t>
+  </si>
+  <si>
+    <t>Actualizar producto</t>
+  </si>
+  <si>
+    <t>Consultar el producto</t>
+  </si>
+  <si>
+    <t>MODULO DE EMPLEADOS</t>
+  </si>
+  <si>
+    <t>MODULO DE VENTA</t>
+  </si>
+  <si>
+    <t>●       Registrar productos que han salido, pero no se han procesado como vendidos en el sistema</t>
+  </si>
+  <si>
+    <t>●       Pasar a la venta los productos que están en stock de la lista de deudores.</t>
+  </si>
+  <si>
+    <t>●       Eliminar los productos de la lista de deudores.</t>
+  </si>
+  <si>
+    <t>●       Actualizar los productos de la lista de deudores.</t>
+  </si>
+  <si>
+    <t>●       Modificar los productos de la lista de deudores.</t>
+  </si>
+  <si>
+    <t>●       Consultar los productos de la lista de deudores.</t>
+  </si>
+  <si>
+    <t>MODULO DE REPORTES</t>
+  </si>
+  <si>
+    <t>●       Reporte de movimientos. Entrada, salidas y actualización de los productos</t>
+  </si>
+  <si>
+    <t>●       Reporte de ventas diarias, semanal, mensual.</t>
+  </si>
+  <si>
+    <t>●       Corte general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">●       Hacer un formulario para consultar las ventas y hacer el filtrado. </t>
+  </si>
+  <si>
+    <t>●       Codificar el filtrado de ventas y hacer las operaciones correspondientes</t>
+  </si>
+  <si>
+    <t>MODULO: MONITOREO DE LOS PRODUCTOS</t>
+  </si>
+  <si>
+    <t>MODULO CATALOGO DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>MODULO CARRITO DE COMPRAS</t>
+  </si>
+  <si>
+    <t>MODULO DE CLIENTES</t>
+  </si>
+  <si>
+    <t>MODULO SEGUIMIENTO DE PEDIDOS</t>
+  </si>
+  <si>
+    <t>MODULO DE COMPRAS</t>
+  </si>
+  <si>
+    <t>MODULO DE USUARIOS</t>
+  </si>
+  <si>
+    <t>MODULO CARTERA VENCIDA DE CLIENTES</t>
+  </si>
+  <si>
+    <t>MODULO: CONTROL DE INVENTARIO RAPIDO</t>
+  </si>
+  <si>
+    <t>MODULO DE PAGOS COMPRAS</t>
+  </si>
+  <si>
+    <t>MODULOS DEL PUNTO DE VENTA Y ECOMMERCE DE FARMACIAS GI</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFICAR:
+VALIDAR CAMPOS
+MANDAR MENSAJES DE CONFIRMACION
+CHECAR MODULOS
+CHECAR SUBPRODUCTO
+ACTUALIZAR LOS ICONOS
+HEBER DEBE CAMBIAR EL STATUS A UNSIGNEINTEGER
+STOCK O INVENTARIO
+COMPONER VENTA STOCK DE PRODUCTOS                                                CHECAR BIEN EL BUSCADOR DE PRODUCTO
+</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPLICACION DE MODULOS   </t>
+  </si>
+  <si>
+    <t>VALIDACION DE CAMPOS    *</t>
+  </si>
+  <si>
+    <t>USUARIO ADMINISTRADOR    OK*</t>
+  </si>
+  <si>
+    <t>USUARIO EMPLEADO    *</t>
+  </si>
+  <si>
+    <t>Alta de empleados por el administrador  OK</t>
+  </si>
+  <si>
+    <t>Alta de sucursal por el administrador   OK</t>
+  </si>
+  <si>
+    <t>Agregar empleados a la nueva sucursal  OK</t>
+  </si>
+  <si>
+    <t>Nuevos departamentos           OK</t>
+  </si>
+  <si>
+    <t>Nuevos productos (Crud)         OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Curp automáticamente        ***         </t>
+  </si>
+  <si>
+    <t>Presentar acceso            OK</t>
+  </si>
+  <si>
+    <t>Alta de sucursales   OK</t>
+  </si>
+  <si>
+    <t>sucursales CRUD    OK</t>
   </si>
 </sst>
 </file>
@@ -727,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -762,6 +911,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,6 +1129,17 @@
     <tableColumn id="23" xr3:uid="{E687F5CE-63E4-479F-B92A-FEA3A35DB179}" name="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{41FDEC08-13AD-460F-8312-8EF49D99BF0D}" name="Tabla5" displayName="Tabla5" ref="A2:B27" totalsRowShown="0">
+  <autoFilter ref="A2:B27" xr:uid="{91A8C9E8-6F93-4190-B02F-0948150CC853}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6801B1B6-48C2-405C-891D-D6345EE6AD0D}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{F481FE8C-974B-44CA-94D2-F35A1DD43D69}" name="Columna2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3749,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91618274-D019-4406-BA70-EF6012AE3177}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +4746,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4865,4 +5028,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
+  <dimension ref="A2:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="105.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F16" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5CB39467-3D67-4D4D-B869-DD3DF7E7C505}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD7D90FD-9F57-4568-B11F-CCCB459371BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="233">
   <si>
     <t>Sprint</t>
   </si>
@@ -722,6 +722,24 @@
   </si>
   <si>
     <t>sucursales CRUD    OK</t>
+  </si>
+  <si>
+    <t>MODULO SECCION DE CONTENIDO</t>
+  </si>
+  <si>
+    <t>MODULO INSCRIPCION CLIENTE</t>
+  </si>
+  <si>
+    <t>MODULO DE MEDIOS DE PAGO</t>
+  </si>
+  <si>
+    <t>MODULO DE HISTORIAL DE PEDIDOS</t>
+  </si>
+  <si>
+    <t>MODULO DE COTIZACION</t>
+  </si>
+  <si>
+    <t>MODULOS DEL ECOMMERCE</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1151,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{41FDEC08-13AD-460F-8312-8EF49D99BF0D}" name="Tabla5" displayName="Tabla5" ref="A2:B27" totalsRowShown="0">
-  <autoFilter ref="A2:B27" xr:uid="{91A8C9E8-6F93-4190-B02F-0948150CC853}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{41FDEC08-13AD-460F-8312-8EF49D99BF0D}" name="Tabla5" displayName="Tabla5" ref="A2:B39" totalsRowShown="0">
+  <autoFilter ref="A2:B39" xr:uid="{91A8C9E8-6F93-4190-B02F-0948150CC853}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6801B1B6-48C2-405C-891D-D6345EE6AD0D}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{F481FE8C-974B-44CA-94D2-F35A1DD43D69}" name="Columna2"/>
@@ -3912,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91618274-D019-4406-BA70-EF6012AE3177}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5032,10 +5050,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,28 +5151,58 @@
         <v>199</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>203</v>
       </c>
     </row>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD7D90FD-9F57-4568-B11F-CCCB459371BE}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6A395CB7-F8CA-45F9-918F-0D9EB8005160}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CAMBIOS REVISADO DOCTORA" sheetId="6" r:id="rId6"/>
     <sheet name="MODULOS" sheetId="15" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="246">
   <si>
     <t>Sprint</t>
   </si>
@@ -740,6 +741,45 @@
   </si>
   <si>
     <t>MODULOS DEL ECOMMERCE</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>sucursales</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>ALTAS</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>AGREGAR EMPLEADOS A SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR BAJA EMPLEADOS</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>sucursal</t>
+  </si>
+  <si>
+    <t>proveedor</t>
   </si>
 </sst>
 </file>
@@ -5052,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,4 +5407,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6A395CB7-F8CA-45F9-918F-0D9EB8005160}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B980E6C-B9D6-4CF3-978F-83AF210F0AA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="283">
   <si>
     <t>Sprint</t>
   </si>
@@ -746,30 +746,12 @@
     <t>departamento</t>
   </si>
   <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>sucursales</t>
-  </si>
-  <si>
     <t>empleados</t>
   </si>
   <si>
     <t>CRUD</t>
   </si>
   <si>
-    <t>ALTAS</t>
-  </si>
-  <si>
-    <t>EMPLEADOS</t>
-  </si>
-  <si>
-    <t>AGREGAR EMPLEADOS A SUCURSAL</t>
-  </si>
-  <si>
-    <t>DAR BAJA EMPLEADOS</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -780,6 +762,135 @@
   </si>
   <si>
     <t>proveedor</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>lista deudores</t>
+  </si>
+  <si>
+    <t>corte</t>
+  </si>
+  <si>
+    <t>reporte inventario</t>
+  </si>
+  <si>
+    <t>reporte ventas</t>
+  </si>
+  <si>
+    <t>devoluciones</t>
+  </si>
+  <si>
+    <t>pago compras</t>
+  </si>
+  <si>
+    <t>crear, ver</t>
+  </si>
+  <si>
+    <t>crear productos, agregar de stock, alta productos, proximos a caducar, ofertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear, agregar a sucursal, ver todos los empleados gral, </t>
+  </si>
+  <si>
+    <t>checar mayusculas</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>pendiente eliminar sucursal porque se le agrega usuario admin</t>
+  </si>
+  <si>
+    <t>ok * eliminar</t>
+  </si>
+  <si>
+    <t>confirmar devolucion</t>
+  </si>
+  <si>
+    <t>El&lt;iminar empleado</t>
+  </si>
+  <si>
+    <t>cantidad de compra</t>
+  </si>
+  <si>
+    <t>cantidad de venta</t>
+  </si>
+  <si>
+    <t>cantidad de ganancia</t>
+  </si>
+  <si>
+    <t>cantidad de inventario por sucursal</t>
+  </si>
+  <si>
+    <t>monto en inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modificar costos </t>
+  </si>
+  <si>
+    <t>modificar existencias</t>
+  </si>
+  <si>
+    <t>gsnancia mas inventario</t>
+  </si>
+  <si>
+    <t>cargar en ventas productos con status 1</t>
+  </si>
+  <si>
+    <t>proximos a caducar inv</t>
+  </si>
+  <si>
+    <t>ABONO SIN NEGATIVO Y NO EXCEDA LA COMPRA</t>
+  </si>
+  <si>
+    <t>quitar ofertas opc en inventario</t>
+  </si>
+  <si>
+    <t>cargar oferta en inventario</t>
+  </si>
+  <si>
+    <t>total de compra</t>
+  </si>
+  <si>
+    <t>signo de pesos en totales de repportes</t>
+  </si>
+  <si>
+    <t>cambiar cajero name admin</t>
+  </si>
+  <si>
+    <t>restar al inventario existencia de productos dados de baja</t>
+  </si>
+  <si>
+    <t>borrar detalle en devolucion</t>
+  </si>
+  <si>
+    <t>PIDIO ASESORA EXTERNA</t>
+  </si>
+  <si>
+    <t>agregar rutas  poner url o que parte estamos</t>
+  </si>
+  <si>
+    <t>REALIZADO</t>
+  </si>
+  <si>
+    <t>ofertas.png EN VENTAS</t>
+  </si>
+  <si>
+    <t>MAYUSCULA DETALLE DEVOLUCION</t>
+  </si>
+  <si>
+    <t>eistencia menor o igual a piezas EN SUBPRODUCTOS</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -972,6 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2074,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20EA784-6125-4E30-9CE1-8BF1A2BFBD38}">
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3138,7 +3250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0724BB-FA78-4321-AA6B-FCC36A56DCA0}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -5092,7 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5260,11 +5372,12 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
     <col min="6" max="6" width="105.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5411,74 +5524,260 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
       <c r="B2" t="s">
         <v>235</v>
       </c>
       <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>237</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>238</v>
       </c>
-      <c r="G3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="C4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>234</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" t="s">
+        <v>274</v>
+      </c>
+      <c r="M9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s">
         <v>236</v>
       </c>
-      <c r="J5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>241</v>
-      </c>
-      <c r="J6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>245</v>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B980E6C-B9D6-4CF3-978F-83AF210F0AA9}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{06D7C79D-B053-4B2F-849A-5C5585E72ACD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="288">
   <si>
     <t>Sprint</t>
   </si>
@@ -866,9 +866,6 @@
     <t>signo de pesos en totales de repportes</t>
   </si>
   <si>
-    <t>cambiar cajero name admin</t>
-  </si>
-  <si>
     <t>restar al inventario existencia de productos dados de baja</t>
   </si>
   <si>
@@ -891,6 +888,24 @@
   </si>
   <si>
     <t>eistencia menor o igual a piezas EN SUBPRODUCTOS</t>
+  </si>
+  <si>
+    <t>actualiazar a "agregar existencia"</t>
+  </si>
+  <si>
+    <t>verificar metodos corte cajA</t>
+  </si>
+  <si>
+    <t>checar lista deudores corresponda a la sucursal actual y demas vistas tambien</t>
+  </si>
+  <si>
+    <t>entradas nuevos productos: quitar no especificado cuando elija un cajero</t>
+  </si>
+  <si>
+    <t>aC</t>
+  </si>
+  <si>
+    <t>separar cantidad de cantidad subproductos en inventario?</t>
   </si>
 </sst>
 </file>
@@ -5527,7 +5542,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5555,7 @@
         <v>236</v>
       </c>
       <c r="M1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5571,7 +5586,7 @@
         <v>253</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M3" t="s">
         <v>271</v>
@@ -5627,7 +5642,7 @@
         <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M7" t="s">
         <v>268</v>
@@ -5649,7 +5664,7 @@
         <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
         <v>256</v>
@@ -5660,7 +5675,7 @@
         <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5670,8 +5685,11 @@
       <c r="B11" t="s">
         <v>249</v>
       </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
       <c r="M11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5679,30 +5697,42 @@
         <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+      <c r="M12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>244</v>
       </c>
+      <c r="G15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>242</v>
       </c>
@@ -5710,27 +5740,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>242</v>
       </c>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{06D7C79D-B053-4B2F-849A-5C5585E72ACD}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CC670F73-7B31-4D4B-8889-A99C2A3B9394}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="297">
   <si>
     <t>Sprint</t>
   </si>
@@ -906,6 +906,33 @@
   </si>
   <si>
     <t>separar cantidad de cantidad subproductos en inventario?</t>
+  </si>
+  <si>
+    <t>piezas</t>
+  </si>
+  <si>
+    <t>observacion</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>eliminar -&gt; existencia 0</t>
+  </si>
+  <si>
+    <t>perdidas y ganancias en inventario ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio </t>
+  </si>
+  <si>
+    <t>existencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costo </t>
+  </si>
+  <si>
+    <t>Route::get('eliSubproducto/{id}', [SubproductoController::class,'eliminar']);</t>
   </si>
 </sst>
 </file>
@@ -5539,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5715,6 +5742,9 @@
       <c r="G15" t="s">
         <v>284</v>
       </c>
+      <c r="M15" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5723,91 +5753,115 @@
       <c r="G16" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>246</v>
       </c>
       <c r="G17" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="M19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>288</v>
+      </c>
+      <c r="M22" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B34" t="s">
+      <c r="N22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>289</v>
+      </c>
+      <c r="M23" t="s">
         <v>262</v>
       </c>
-      <c r="B35" t="s">
+      <c r="N23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>290</v>
+      </c>
+      <c r="M24" t="s">
         <v>263</v>
       </c>
-      <c r="B36" t="s">
+      <c r="N24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>291</v>
+      </c>
+      <c r="M25" t="s">
         <v>264</v>
       </c>
-      <c r="B37" t="s">
+      <c r="N25" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
         <v>265</v>
       </c>
-      <c r="B38" t="s">
+      <c r="N26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CC670F73-7B31-4D4B-8889-A99C2A3B9394}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4FC8E68-666C-4D51-AD13-EB4561762FB2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="311">
   <si>
     <t>Sprint</t>
   </si>
@@ -887,9 +887,6 @@
     <t>MAYUSCULA DETALLE DEVOLUCION</t>
   </si>
   <si>
-    <t>eistencia menor o igual a piezas EN SUBPRODUCTOS</t>
-  </si>
-  <si>
     <t>actualiazar a "agregar existencia"</t>
   </si>
   <si>
@@ -902,9 +899,6 @@
     <t>entradas nuevos productos: quitar no especificado cuando elija un cajero</t>
   </si>
   <si>
-    <t>aC</t>
-  </si>
-  <si>
     <t>separar cantidad de cantidad subproductos en inventario?</t>
   </si>
   <si>
@@ -933,6 +927,54 @@
   </si>
   <si>
     <t>Route::get('eliSubproducto/{id}', [SubproductoController::class,'eliminar']);</t>
+  </si>
+  <si>
+    <t>eistencia menor o igual a piezas EN SUBPRODUCTOS?</t>
+  </si>
+  <si>
+    <t>boton regresa en vistas</t>
+  </si>
+  <si>
+    <t>cambiar texto de reportes nombres</t>
+  </si>
+  <si>
+    <t>testear cargar subproductos</t>
+  </si>
+  <si>
+    <t>lista deudor corregir responsibidad</t>
+  </si>
+  <si>
+    <t>ventas no poner home ni atrás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checar perdidas? </t>
+  </si>
+  <si>
+    <t>agregar icono regresar a subproducto</t>
+  </si>
+  <si>
+    <t>filtrar por tipo inventario</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>verificar las fechas en reporte inv</t>
+  </si>
+  <si>
+    <t>imprimir reportes</t>
+  </si>
+  <si>
+    <t>corregir reporte ventas</t>
+  </si>
+  <si>
+    <t>hacer lo que la doctora quiere</t>
+  </si>
+  <si>
+    <t>imprimir ticket</t>
+  </si>
+  <si>
+    <t>documentacion punto venta avanzar</t>
   </si>
 </sst>
 </file>
@@ -5566,15 +5608,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5630,7 +5674,7 @@
         <v>255</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M4" t="s">
         <v>273</v>
@@ -5647,7 +5691,7 @@
         <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="M5" t="s">
         <v>267</v>
@@ -5669,7 +5713,7 @@
         <v>236</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
         <v>268</v>
@@ -5677,7 +5721,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="M8" t="s">
         <v>269</v>
@@ -5691,7 +5735,7 @@
         <v>251</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M9" t="s">
         <v>256</v>
@@ -5701,6 +5745,9 @@
       <c r="A10" t="s">
         <v>248</v>
       </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
       <c r="M10" t="s">
         <v>279</v>
       </c>
@@ -5713,7 +5760,7 @@
         <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M11" t="s">
         <v>275</v>
@@ -5724,15 +5771,32 @@
         <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>283</v>
+      <c r="M14" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5740,128 +5804,156 @@
         <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="M15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>245</v>
       </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
       <c r="G16" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>246</v>
       </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
       <c r="G17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+      <c r="M18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="M19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="M20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
+      <c r="M21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>242</v>
       </c>
-      <c r="B19" t="s">
-        <v>250</v>
-      </c>
-      <c r="M19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>288</v>
-      </c>
-      <c r="M22" s="27" t="s">
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="M23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="N22" t="s">
+      <c r="B26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>289</v>
-      </c>
-      <c r="M23" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>262</v>
       </c>
-      <c r="N23" t="s">
+      <c r="B27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>290</v>
-      </c>
-      <c r="M24" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>263</v>
       </c>
-      <c r="N24" t="s">
+      <c r="B28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>291</v>
-      </c>
-      <c r="M25" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>264</v>
       </c>
-      <c r="N25" t="s">
+      <c r="B29" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M26" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>265</v>
       </c>
-      <c r="N26" t="s">
+      <c r="B30" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>292</v>
-      </c>
-      <c r="M27" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4FC8E68-666C-4D51-AD13-EB4561762FB2}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0AFD1DE-EFFE-4113-A31C-BF48E3FA4D00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="441">
   <si>
     <t>Sprint</t>
   </si>
@@ -975,6 +975,396 @@
   </si>
   <si>
     <t>documentacion punto venta avanzar</t>
+  </si>
+  <si>
+    <t>cambiar user admin@gmail.com</t>
+  </si>
+  <si>
+    <t>buscador en agregar de stock</t>
+  </si>
+  <si>
+    <t>ocultar clave</t>
+  </si>
+  <si>
+    <t>corregir vermas acciones con ajax o fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el cliente se agrego correctamente </t>
+  </si>
+  <si>
+    <t>FALTA HACER</t>
+  </si>
+  <si>
+    <t>paginate de inventario?</t>
+  </si>
+  <si>
+    <t>paginar</t>
+  </si>
+  <si>
+    <t>$datos['empleados'] = Empleados::paginate(5);</t>
+  </si>
+  <si>
+    <t>{{$empleados-&gt;links() }}</t>
+  </si>
+  <si>
+    <t>REPORTES CORREGIR</t>
+  </si>
+  <si>
+    <t>total ganancia total perdida en inventario</t>
+  </si>
+  <si>
+    <t>confirmar abonos realizados</t>
+  </si>
+  <si>
+    <t>confirmaciones en empleado gral</t>
+  </si>
+  <si>
+    <t>desabilitar boton admon a empleados</t>
+  </si>
+  <si>
+    <t>validar correo en crear empleado</t>
+  </si>
+  <si>
+    <t>vrevisar verificar correo</t>
+  </si>
+  <si>
+    <t>enviar clave por correo: adicionar usuario, correo,</t>
+  </si>
+  <si>
+    <t>farmacias gi envie el correo y no heber</t>
+  </si>
+  <si>
+    <t>mandar mensaje de empleado no ah sido logeado en este sucursal?</t>
+  </si>
+  <si>
+    <t>el administrador no puede seleccionar clientes para verlos</t>
+  </si>
+  <si>
+    <t>EN EL BUSCADOR DE INVENTARIO QUITAR SUBPRODUCTOS Y OFERTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIRMAR EDITAR PRODUCTO </t>
+  </si>
+  <si>
+    <t>stock de productos poner icono regresar</t>
+  </si>
+  <si>
+    <t>reducir tamaño caducidad de los productos</t>
+  </si>
+  <si>
+    <t>poner ojo en clave cobrar venta?</t>
+  </si>
+  <si>
+    <t>imprimir directo ticket y no generar archivo</t>
+  </si>
+  <si>
+    <t>buscar venta devolucion cambiar nombre empleado administracion bien</t>
+  </si>
+  <si>
+    <t>no calcula devolucion en devolver</t>
+  </si>
+  <si>
+    <t>optimizar codigo</t>
+  </si>
+  <si>
+    <t>MODULOS TESTEAR</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>clientes -&gt; error</t>
+  </si>
+  <si>
+    <t>proveedores -&gt; ok</t>
+  </si>
+  <si>
+    <t>depto-&gt; OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crud productos </t>
+  </si>
+  <si>
+    <t>agregar de stock</t>
+  </si>
+  <si>
+    <t>alta productos</t>
+  </si>
+  <si>
+    <t>proximos a caducar</t>
+  </si>
+  <si>
+    <t>inventario rapido</t>
+  </si>
+  <si>
+    <t>MODULO</t>
+  </si>
+  <si>
+    <t>REVISADO</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTES</t>
+  </si>
+  <si>
+    <t>IMPRIMIR TICKET DIRECTO</t>
+  </si>
+  <si>
+    <t>CALCULAR GANACIAS</t>
+  </si>
+  <si>
+    <t>CALCULAR PERDIDAS*</t>
+  </si>
+  <si>
+    <t>MONITOREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIAR CORREO DE BAJAS DE EXISTENCIA </t>
+  </si>
+  <si>
+    <t>ENVIAR CORREO PROXIMOS A CADUCAR</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>COMPRAS</t>
+  </si>
+  <si>
+    <t>INVENTARIO</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>LISTA DEUDORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTE </t>
+  </si>
+  <si>
+    <t>REPORTES</t>
+  </si>
+  <si>
+    <t>DEVOLUCION</t>
+  </si>
+  <si>
+    <t>GENERAR VENTAS</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>CREAR CLIENTE</t>
+  </si>
+  <si>
+    <t>EDITAR CLIENTE</t>
+  </si>
+  <si>
+    <t>ELIMINAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CONSULTAR COMPRAS</t>
+  </si>
+  <si>
+    <t>CREAR COMPRAS</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CREAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>DAR DE BAJA PROVEEDOR</t>
+  </si>
+  <si>
+    <t>EDITAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>ALTA PROVEEDOR</t>
+  </si>
+  <si>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t>VERIFICAR SUBICONOS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTOS</t>
+  </si>
+  <si>
+    <t>SUCURSALES</t>
+  </si>
+  <si>
+    <t>CREAR DEPTO</t>
+  </si>
+  <si>
+    <t>EDITAR DEPTO</t>
+  </si>
+  <si>
+    <t>ELIMINAR DEPTO</t>
+  </si>
+  <si>
+    <t>NUEVO PRODUCTO</t>
+  </si>
+  <si>
+    <t>AGREGAR STOCK</t>
+  </si>
+  <si>
+    <t>PROXIMOS A CADUCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>INVENTARIO RAPIDO</t>
+  </si>
+  <si>
+    <t>ALTA PRODUCTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAJA PRODUCTOS</t>
+  </si>
+  <si>
+    <t>EDITAR PRODUCTOS</t>
+  </si>
+  <si>
+    <t>EDITAR: PRECIO, COSTO Y EXISTENCIA PROD</t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>AGREGAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>ELIMINAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO: EXISTENCIA STOCK</t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO: EXISTENCIA NUEVO</t>
+  </si>
+  <si>
+    <t>OFERTAS</t>
+  </si>
+  <si>
+    <t>NO SE VE NADA EN OFERTA</t>
+  </si>
+  <si>
+    <t>CREAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR DE BAJA SUCURSAL</t>
+  </si>
+  <si>
+    <t>EDITAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>CONSULTAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>AGREGAR CONSULTAR EN TODOS</t>
+  </si>
+  <si>
+    <t>ALTA SUCURSAL</t>
+  </si>
+  <si>
+    <t>AGREGAR EMPLEADOS A SUCURSAL</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEADOS DE LA SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR PERMISOS A EMPLEADOS EN SUCURSAL</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>CREAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>EDITAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>HACER MANUAL DE USUARIO</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>CONSULTAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>ABONAR DEUDAS</t>
+  </si>
+  <si>
+    <t>IMPRIMIR CORTE</t>
+  </si>
+  <si>
+    <t>REPORTE INVENTARIO</t>
+  </si>
+  <si>
+    <t>GENERAR REPORTE</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE INV</t>
+  </si>
+  <si>
+    <t>REPORTE VENTAS</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE VENTAS</t>
+  </si>
+  <si>
+    <t>REPORTE COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>MONITOREO BAJOS DE EXISTENCIA</t>
+  </si>
+  <si>
+    <t>MONITOREO FECHAS DE CADUCIDAD</t>
+  </si>
+  <si>
+    <t>CONSULTAR VENTAS</t>
+  </si>
+  <si>
+    <t>CONSULTAR CLIENTES</t>
+  </si>
+  <si>
+    <t>CONSULTAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CONSULTAR PRODUCTO</t>
+  </si>
+  <si>
+    <t>CONSULTAR OFERTAS</t>
+  </si>
+  <si>
+    <t>CONSULTAR SUBPRODUCTOS</t>
+  </si>
+  <si>
+    <t>CHECAR CON HEBER FECHAS REPORTES</t>
+  </si>
+  <si>
+    <t>ICONO REGRESAR EN REPORTES</t>
+  </si>
+  <si>
+    <t>cobrar e imprimir ticket quitar en venta</t>
+  </si>
+  <si>
+    <t>mensaje cnofirmacion devolucion</t>
+  </si>
+  <si>
+    <t>limpiar modal venta devolunion</t>
   </si>
 </sst>
 </file>
@@ -5288,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,15 +5843,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="105.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5531,74 +5922,550 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" t="s">
+        <v>360</v>
+      </c>
       <c r="F27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" t="s">
+        <v>368</v>
+      </c>
       <c r="F28" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>376</v>
+      </c>
+      <c r="F37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="F39" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B40" t="s">
+        <v>379</v>
+      </c>
+      <c r="F40" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>361</v>
+      </c>
+      <c r="F42" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5608,16 +6475,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5817,6 +6684,9 @@
       <c r="C16" t="s">
         <v>286</v>
       </c>
+      <c r="F16" t="s">
+        <v>316</v>
+      </c>
       <c r="G16" t="s">
         <v>274</v>
       </c>
@@ -5842,57 +6712,81 @@
       <c r="C18" t="s">
         <v>288</v>
       </c>
+      <c r="G18" t="s">
+        <v>311</v>
+      </c>
       <c r="M18" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C19" t="s">
         <v>289</v>
       </c>
+      <c r="G19" t="s">
+        <v>312</v>
+      </c>
       <c r="M19" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C20" t="s">
         <v>290</v>
       </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
       <c r="M20" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="23" t="s">
         <v>259</v>
+      </c>
+      <c r="F21" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" t="s">
+        <v>314</v>
       </c>
       <c r="M21" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="23" t="s">
         <v>260</v>
       </c>
       <c r="C22" t="s">
         <v>292</v>
       </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
       <c r="M22" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="23" t="s">
         <v>242</v>
       </c>
       <c r="C23" t="s">
         <v>293</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="M23" t="s">
         <v>296</v>
@@ -5902,11 +6796,20 @@
       <c r="C24" t="s">
         <v>291</v>
       </c>
+      <c r="F24" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="M24" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>294</v>
       </c>
+      <c r="F25" s="23" t="s">
+        <v>259</v>
+      </c>
       <c r="H25" t="s">
         <v>303</v>
       </c>
@@ -5918,6 +6821,9 @@
       <c r="B26" t="s">
         <v>236</v>
       </c>
+      <c r="F26" s="23" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5926,6 +6832,9 @@
       <c r="B27" t="s">
         <v>236</v>
       </c>
+      <c r="F27" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5934,6 +6843,9 @@
       <c r="B28" t="s">
         <v>236</v>
       </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5942,6 +6854,15 @@
       <c r="B29" t="s">
         <v>236</v>
       </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5950,13 +6871,174 @@
       <c r="B30" t="s">
         <v>236</v>
       </c>
+      <c r="F30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>266</v>
       </c>
+      <c r="F31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>403</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>437</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>439</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
+      <c r="F47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0AFD1DE-EFFE-4113-A31C-BF48E3FA4D00}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2E859BB-3838-4AAF-A6B1-F338ABAA2B3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ENTREGADO" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="CAMBIOS REVISADO DOCTORA" sheetId="6" r:id="rId6"/>
     <sheet name="MODULOS" sheetId="15" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
-    <sheet name="Hoja2" sheetId="17" r:id="rId9"/>
+    <sheet name="Hoja3" sheetId="18" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="447">
   <si>
     <t>Sprint</t>
   </si>
@@ -1365,6 +1366,24 @@
   </si>
   <si>
     <t>limpiar modal venta devolunion</t>
+  </si>
+  <si>
+    <t>cambiar boton depto en crear producto</t>
+  </si>
+  <si>
+    <t>OPTIMIZADOS</t>
+  </si>
+  <si>
+    <t>devolucion</t>
+  </si>
+  <si>
+    <t>validar que se seleccione un cliente en ventas a credito</t>
+  </si>
+  <si>
+    <t>venta a credito se agrega 3 veces</t>
+  </si>
+  <si>
+    <t>lista deudor</t>
   </si>
 </sst>
 </file>
@@ -2656,6 +2675,579 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" t="s">
+        <v>306</v>
+      </c>
+      <c r="M9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>309</v>
+      </c>
+      <c r="M12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" t="s">
+        <v>282</v>
+      </c>
+      <c r="M14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="s">
+        <v>304</v>
+      </c>
+      <c r="M15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="M16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
+        <v>311</v>
+      </c>
+      <c r="M18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" t="s">
+        <v>312</v>
+      </c>
+      <c r="M19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
+      <c r="M20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" t="s">
+        <v>312</v>
+      </c>
+      <c r="G21" t="s">
+        <v>314</v>
+      </c>
+      <c r="M21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="M24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>322</v>
+      </c>
+      <c r="H32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>403</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>437</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>439</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
+      <c r="F47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20EA784-6125-4E30-9CE1-8BF1A2BFBD38}">
   <dimension ref="A1:V103"/>
@@ -5843,10 +6435,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5944,9 +6536,6 @@
       <c r="A27" t="s">
         <v>234</v>
       </c>
-      <c r="B27" t="s">
-        <v>360</v>
-      </c>
       <c r="F27" t="s">
         <v>214</v>
       </c>
@@ -5955,25 +6544,14 @@
       <c r="A28" t="s">
         <v>342</v>
       </c>
-      <c r="B28" t="s">
-        <v>368</v>
-      </c>
       <c r="F28" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>238</v>
       </c>
-      <c r="B30" t="s">
-        <v>367</v>
-      </c>
       <c r="F30" t="s">
         <v>216</v>
       </c>
@@ -5982,9 +6560,6 @@
       <c r="A31" t="s">
         <v>343</v>
       </c>
-      <c r="B31" t="s">
-        <v>369</v>
-      </c>
       <c r="F31" t="s">
         <v>217</v>
       </c>
@@ -5993,9 +6568,6 @@
       <c r="A32" t="s">
         <v>344</v>
       </c>
-      <c r="B32" t="s">
-        <v>370</v>
-      </c>
       <c r="F32" t="s">
         <v>218</v>
       </c>
@@ -6004,25 +6576,14 @@
       <c r="A33" t="s">
         <v>345</v>
       </c>
-      <c r="B33" t="s">
-        <v>371</v>
-      </c>
       <c r="F33" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>346</v>
       </c>
-      <c r="B35" t="s">
-        <v>372</v>
-      </c>
       <c r="F35" t="s">
         <v>220</v>
       </c>
@@ -6031,9 +6592,6 @@
       <c r="A36" t="s">
         <v>242</v>
       </c>
-      <c r="B36" t="s">
-        <v>375</v>
-      </c>
       <c r="F36" t="s">
         <v>221</v>
       </c>
@@ -6042,9 +6600,6 @@
       <c r="A37" t="s">
         <v>347</v>
       </c>
-      <c r="B37" t="s">
-        <v>376</v>
-      </c>
       <c r="F37" t="s">
         <v>222</v>
       </c>
@@ -6053,9 +6608,6 @@
       <c r="A38" t="s">
         <v>348</v>
       </c>
-      <c r="B38" t="s">
-        <v>377</v>
-      </c>
       <c r="F38" t="s">
         <v>223</v>
       </c>
@@ -6064,9 +6616,6 @@
       <c r="A39" t="s">
         <v>349</v>
       </c>
-      <c r="B39" t="s">
-        <v>378</v>
-      </c>
       <c r="F39" t="s">
         <v>224</v>
       </c>
@@ -6076,7 +6625,7 @@
         <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
         <v>225</v>
@@ -6084,7 +6633,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -6092,7 +6641,7 @@
         <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="F42" t="s">
         <v>226</v>
@@ -6102,16 +6651,13 @@
       <c r="A43" t="s">
         <v>217</v>
       </c>
-      <c r="B43" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6119,101 +6665,63 @@
         <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
-      <c r="B46" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>221</v>
       </c>
-      <c r="B47" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
-      <c r="B48" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>223</v>
       </c>
-      <c r="B49" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>224</v>
       </c>
-      <c r="B50" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>225</v>
       </c>
-      <c r="B51" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>226</v>
       </c>
-      <c r="B52" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
-      <c r="B53" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>237</v>
       </c>
-      <c r="B54" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>238</v>
       </c>
-      <c r="B55" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
-      <c r="B57" t="s">
-        <v>395</v>
-      </c>
       <c r="C57" t="s">
         <v>390</v>
       </c>
@@ -6222,46 +6730,26 @@
       <c r="A58" t="s">
         <v>247</v>
       </c>
-      <c r="B58" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>243</v>
       </c>
-      <c r="B59" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>234</v>
       </c>
-      <c r="B61" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
-      <c r="B62" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>240</v>
       </c>
-      <c r="B63" t="s">
-        <v>400</v>
-      </c>
       <c r="C63" t="s">
         <v>399</v>
       </c>
@@ -6270,32 +6758,11 @@
       <c r="A64" t="s">
         <v>241</v>
       </c>
-      <c r="B64" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>242</v>
       </c>
-      <c r="B68" t="s">
-        <v>363</v>
-      </c>
       <c r="D68" t="s">
         <v>408</v>
       </c>
@@ -6304,168 +6771,30 @@
       <c r="A69" t="s">
         <v>244</v>
       </c>
-      <c r="B69" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>245</v>
       </c>
-      <c r="B70" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>246</v>
       </c>
-      <c r="B71" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>357</v>
       </c>
-      <c r="B72" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>358</v>
       </c>
-      <c r="B73" t="s">
-        <v>407</v>
-      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>359</v>
-      </c>
-      <c r="B74" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6474,567 +6803,311 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C909E35-A0DF-4ED4-84E8-206F67377B10}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" t="s">
-        <v>277</v>
-      </c>
-      <c r="M3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="E3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="M5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="E6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="M8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" t="s">
-        <v>306</v>
-      </c>
-      <c r="M9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
-        <v>308</v>
-      </c>
-      <c r="M11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>310</v>
-      </c>
-      <c r="M13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" t="s">
-        <v>282</v>
-      </c>
-      <c r="M14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="M15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="E15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="E16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" t="s">
-        <v>283</v>
-      </c>
-      <c r="M17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" t="s">
-        <v>312</v>
-      </c>
-      <c r="M19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>314</v>
-      </c>
-      <c r="M21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" t="s">
-        <v>314</v>
-      </c>
-      <c r="M22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="M23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="M24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="E27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="E28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29" t="s">
-        <v>308</v>
-      </c>
-      <c r="H29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="E29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="E30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>322</v>
-      </c>
-      <c r="H32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>354</v>
-      </c>
-      <c r="F35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>356</v>
-      </c>
-      <c r="F37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>381</v>
-      </c>
-      <c r="F38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>403</v>
-      </c>
-      <c r="F39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>416</v>
-      </c>
-      <c r="F40" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>437</v>
-      </c>
-      <c r="F42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>332</v>
-      </c>
-      <c r="I43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>438</v>
-      </c>
-      <c r="F45" t="s">
-        <v>334</v>
-      </c>
-      <c r="G45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>439</v>
-      </c>
-      <c r="F46" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>340</v>
+        <v>395</v>
+      </c>
+      <c r="E31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="491" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2E859BB-3838-4AAF-A6B1-F338ABAA2B3A}"/>
+  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E807699F-D673-412F-9310-9D9BB91349EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="454">
   <si>
     <t>Sprint</t>
   </si>
@@ -1384,6 +1384,27 @@
   </si>
   <si>
     <t>lista deudor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en reporte de inventario falta contemplar en entradas: agregar existencia </t>
+  </si>
+  <si>
+    <t>devolucion de productos</t>
+  </si>
+  <si>
+    <t>agregar existencias directo en inventario porque solo esta ajuste de existencia</t>
+  </si>
+  <si>
+    <t>exportar inventarios filtrados o todos</t>
+  </si>
+  <si>
+    <t>EN COMPRA BORRAR TOTAL</t>
+  </si>
+  <si>
+    <t>codigo de barras el producto</t>
+  </si>
+  <si>
+    <t>cargar todas las ofertas y todos los subproductos</t>
   </si>
 </sst>
 </file>
@@ -6437,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,36 +6693,57 @@
       <c r="A46" t="s">
         <v>220</v>
       </c>
+      <c r="B46" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>221</v>
       </c>
+      <c r="B47" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
+      <c r="B48" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>223</v>
       </c>
+      <c r="B49" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>224</v>
       </c>
+      <c r="B50" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>225</v>
       </c>
+      <c r="B51" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>226</v>
       </c>
+      <c r="B52" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -6799,6 +6841,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E807699F-D673-412F-9310-9D9BB91349EE}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{689CC3E8-DECB-4CB1-A4EE-2396634B0576}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="457">
   <si>
     <t>Sprint</t>
   </si>
@@ -1405,6 +1405,15 @@
   </si>
   <si>
     <t>cargar todas las ofertas y todos los subproductos</t>
+  </si>
+  <si>
+    <t>checar que la eñe se registre bien en la bd tanto en el servidor como local</t>
+  </si>
+  <si>
+    <t>impresión directo de ticket</t>
+  </si>
+  <si>
+    <t>{{ url('/puntoVenta/altaSucursal/` + Suc_Inac[t].id + `')}}</t>
   </si>
 </sst>
 </file>
@@ -6458,8 +6467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6713,15 +6722,18 @@
         <v>449</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>223</v>
       </c>
       <c r="B49" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -6729,7 +6741,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -6737,7 +6749,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -6745,22 +6757,28 @@
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -6768,27 +6786,27 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>240</v>
       </c>
@@ -6796,7 +6814,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>241</v>
       </c>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\OneDrive\Documentos\RESIDENCIA\FarmaciaGiDocumentos\SPRINT 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{689CC3E8-DECB-4CB1-A4EE-2396634B0576}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31CF26-E137-4AA8-A5D4-FFC1CDFBF15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -21,20 +21,29 @@
     <sheet name="CAMBIOS REVISADO DOCTORA" sheetId="6" r:id="rId6"/>
     <sheet name="MODULOS" sheetId="15" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="16" r:id="rId8"/>
-    <sheet name="Hoja3" sheetId="18" r:id="rId9"/>
-    <sheet name="Hoja2" sheetId="17" r:id="rId10"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId9"/>
+    <sheet name="Hoja3" sheetId="18" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="522">
   <si>
     <t>Sprint</t>
   </si>
@@ -597,42 +606,9 @@
     <t>MODULO DE VENTA</t>
   </si>
   <si>
-    <t>●       Registrar productos que han salido, pero no se han procesado como vendidos en el sistema</t>
-  </si>
-  <si>
-    <t>●       Pasar a la venta los productos que están en stock de la lista de deudores.</t>
-  </si>
-  <si>
-    <t>●       Eliminar los productos de la lista de deudores.</t>
-  </si>
-  <si>
-    <t>●       Actualizar los productos de la lista de deudores.</t>
-  </si>
-  <si>
-    <t>●       Modificar los productos de la lista de deudores.</t>
-  </si>
-  <si>
-    <t>●       Consultar los productos de la lista de deudores.</t>
-  </si>
-  <si>
     <t>MODULO DE REPORTES</t>
   </si>
   <si>
-    <t>●       Reporte de movimientos. Entrada, salidas y actualización de los productos</t>
-  </si>
-  <si>
-    <t>●       Reporte de ventas diarias, semanal, mensual.</t>
-  </si>
-  <si>
-    <t>●       Corte general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">●       Hacer un formulario para consultar las ventas y hacer el filtrado. </t>
-  </si>
-  <si>
-    <t>●       Codificar el filtrado de ventas y hacer las operaciones correspondientes</t>
-  </si>
-  <si>
     <t>MODULO: MONITOREO DE LOS PRODUCTOS</t>
   </si>
   <si>
@@ -672,748 +648,968 @@
     <t>Columna2</t>
   </si>
   <si>
-    <t xml:space="preserve">VERIFICAR:
-VALIDAR CAMPOS
-MANDAR MENSAJES DE CONFIRMACION
-CHECAR MODULOS
-CHECAR SUBPRODUCTO
-ACTUALIZAR LOS ICONOS
-HEBER DEBE CAMBIAR EL STATUS A UNSIGNEINTEGER
-STOCK O INVENTARIO
-COMPONER VENTA STOCK DE PRODUCTOS                                                CHECAR BIEN EL BUSCADOR DE PRODUCTO
+    <t>ACTIVIDADES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPLICACION DE MODULOS   </t>
+  </si>
+  <si>
+    <t>VALIDACION DE CAMPOS    *</t>
+  </si>
+  <si>
+    <t>USUARIO ADMINISTRADOR    OK*</t>
+  </si>
+  <si>
+    <t>USUARIO EMPLEADO    *</t>
+  </si>
+  <si>
+    <t>Alta de empleados por el administrador  OK</t>
+  </si>
+  <si>
+    <t>Alta de sucursal por el administrador   OK</t>
+  </si>
+  <si>
+    <t>Agregar empleados a la nueva sucursal  OK</t>
+  </si>
+  <si>
+    <t>Nuevos departamentos           OK</t>
+  </si>
+  <si>
+    <t>Nuevos productos (Crud)         OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Curp automáticamente        ***         </t>
+  </si>
+  <si>
+    <t>Presentar acceso            OK</t>
+  </si>
+  <si>
+    <t>Alta de sucursales   OK</t>
+  </si>
+  <si>
+    <t>sucursales CRUD    OK</t>
+  </si>
+  <si>
+    <t>MODULO SECCION DE CONTENIDO</t>
+  </si>
+  <si>
+    <t>MODULO INSCRIPCION CLIENTE</t>
+  </si>
+  <si>
+    <t>MODULO DE MEDIOS DE PAGO</t>
+  </si>
+  <si>
+    <t>MODULO DE HISTORIAL DE PEDIDOS</t>
+  </si>
+  <si>
+    <t>MODULO DE COTIZACION</t>
+  </si>
+  <si>
+    <t>MODULOS DEL ECOMMERCE</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>clientes</t>
+  </si>
+  <si>
+    <t>sucursal</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>lista deudores</t>
+  </si>
+  <si>
+    <t>corte</t>
+  </si>
+  <si>
+    <t>reporte inventario</t>
+  </si>
+  <si>
+    <t>reporte ventas</t>
+  </si>
+  <si>
+    <t>devoluciones</t>
+  </si>
+  <si>
+    <t>pago compras</t>
+  </si>
+  <si>
+    <t>crear, ver</t>
+  </si>
+  <si>
+    <t>crear productos, agregar de stock, alta productos, proximos a caducar, ofertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear, agregar a sucursal, ver todos los empleados gral, </t>
+  </si>
+  <si>
+    <t>checar mayusculas</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>pendiente eliminar sucursal porque se le agrega usuario admin</t>
+  </si>
+  <si>
+    <t>ok * eliminar</t>
+  </si>
+  <si>
+    <t>confirmar devolucion</t>
+  </si>
+  <si>
+    <t>El&lt;iminar empleado</t>
+  </si>
+  <si>
+    <t>cantidad de compra</t>
+  </si>
+  <si>
+    <t>cantidad de venta</t>
+  </si>
+  <si>
+    <t>cantidad de ganancia</t>
+  </si>
+  <si>
+    <t>cantidad de inventario por sucursal</t>
+  </si>
+  <si>
+    <t>monto en inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modificar costos </t>
+  </si>
+  <si>
+    <t>modificar existencias</t>
+  </si>
+  <si>
+    <t>cargar en ventas productos con status 1</t>
+  </si>
+  <si>
+    <t>proximos a caducar inv</t>
+  </si>
+  <si>
+    <t>ABONO SIN NEGATIVO Y NO EXCEDA LA COMPRA</t>
+  </si>
+  <si>
+    <t>quitar ofertas opc en inventario</t>
+  </si>
+  <si>
+    <t>cargar oferta en inventario</t>
+  </si>
+  <si>
+    <t>total de compra</t>
+  </si>
+  <si>
+    <t>signo de pesos en totales de repportes</t>
+  </si>
+  <si>
+    <t>restar al inventario existencia de productos dados de baja</t>
+  </si>
+  <si>
+    <t>borrar detalle en devolucion</t>
+  </si>
+  <si>
+    <t>PIDIO ASESORA EXTERNA</t>
+  </si>
+  <si>
+    <t>agregar rutas  poner url o que parte estamos</t>
+  </si>
+  <si>
+    <t>REALIZADO</t>
+  </si>
+  <si>
+    <t>ofertas.png EN VENTAS</t>
+  </si>
+  <si>
+    <t>MAYUSCULA DETALLE DEVOLUCION</t>
+  </si>
+  <si>
+    <t>actualiazar a "agregar existencia"</t>
+  </si>
+  <si>
+    <t>verificar metodos corte cajA</t>
+  </si>
+  <si>
+    <t>checar lista deudores corresponda a la sucursal actual y demas vistas tambien</t>
+  </si>
+  <si>
+    <t>entradas nuevos productos: quitar no especificado cuando elija un cajero</t>
+  </si>
+  <si>
+    <t>separar cantidad de cantidad subproductos en inventario?</t>
+  </si>
+  <si>
+    <t>perdidas y ganancias en inventario ?</t>
+  </si>
+  <si>
+    <t>existencia</t>
+  </si>
+  <si>
+    <t>Route::get('eliSubproducto/{id}', [SubproductoController::class,'eliminar']);</t>
+  </si>
+  <si>
+    <t>eistencia menor o igual a piezas EN SUBPRODUCTOS?</t>
+  </si>
+  <si>
+    <t>boton regresa en vistas</t>
+  </si>
+  <si>
+    <t>cambiar texto de reportes nombres</t>
+  </si>
+  <si>
+    <t>testear cargar subproductos</t>
+  </si>
+  <si>
+    <t>lista deudor corregir responsibidad</t>
+  </si>
+  <si>
+    <t>ventas no poner home ni atrás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checar perdidas? </t>
+  </si>
+  <si>
+    <t>agregar icono regresar a subproducto</t>
+  </si>
+  <si>
+    <t>filtrar por tipo inventario</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>verificar las fechas en reporte inv</t>
+  </si>
+  <si>
+    <t>imprimir reportes</t>
+  </si>
+  <si>
+    <t>corregir reporte ventas</t>
+  </si>
+  <si>
+    <t>hacer lo que la doctora quiere</t>
+  </si>
+  <si>
+    <t>cambiar user admin@gmail.com</t>
+  </si>
+  <si>
+    <t>buscador en agregar de stock</t>
+  </si>
+  <si>
+    <t>ocultar clave</t>
+  </si>
+  <si>
+    <t>corregir vermas acciones con ajax o fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el cliente se agrego correctamente </t>
+  </si>
+  <si>
+    <t>paginate de inventario?</t>
+  </si>
+  <si>
+    <t>paginar</t>
+  </si>
+  <si>
+    <t>$datos['empleados'] = Empleados::paginate(5);</t>
+  </si>
+  <si>
+    <t>{{$empleados-&gt;links() }}</t>
+  </si>
+  <si>
+    <t>total ganancia total perdida en inventario</t>
+  </si>
+  <si>
+    <t>confirmar abonos realizados</t>
+  </si>
+  <si>
+    <t>confirmaciones en empleado gral</t>
+  </si>
+  <si>
+    <t>desabilitar boton admon a empleados</t>
+  </si>
+  <si>
+    <t>validar correo en crear empleado</t>
+  </si>
+  <si>
+    <t>vrevisar verificar correo</t>
+  </si>
+  <si>
+    <t>enviar clave por correo: adicionar usuario, correo,</t>
+  </si>
+  <si>
+    <t>farmacias gi envie el correo y no heber</t>
+  </si>
+  <si>
+    <t>mandar mensaje de empleado no ah sido logeado en este sucursal?</t>
+  </si>
+  <si>
+    <t>el administrador no puede seleccionar clientes para verlos</t>
+  </si>
+  <si>
+    <t>EN EL BUSCADOR DE INVENTARIO QUITAR SUBPRODUCTOS Y OFERTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIRMAR EDITAR PRODUCTO </t>
+  </si>
+  <si>
+    <t>stock de productos poner icono regresar</t>
+  </si>
+  <si>
+    <t>reducir tamaño caducidad de los productos</t>
+  </si>
+  <si>
+    <t>poner ojo en clave cobrar venta?</t>
+  </si>
+  <si>
+    <t>imprimir directo ticket y no generar archivo</t>
+  </si>
+  <si>
+    <t>buscar venta devolucion cambiar nombre empleado administracion bien</t>
+  </si>
+  <si>
+    <t>no calcula devolucion en devolver</t>
+  </si>
+  <si>
+    <t>clientes -&gt; error</t>
+  </si>
+  <si>
+    <t>proveedores -&gt; ok</t>
+  </si>
+  <si>
+    <t>depto-&gt; OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crud productos </t>
+  </si>
+  <si>
+    <t>agregar de stock</t>
+  </si>
+  <si>
+    <t>alta productos</t>
+  </si>
+  <si>
+    <t>proximos a caducar</t>
+  </si>
+  <si>
+    <t>inventario rapido</t>
+  </si>
+  <si>
+    <t>CALCULAR GANACIAS</t>
+  </si>
+  <si>
+    <t>CALCULAR PERDIDAS*</t>
+  </si>
+  <si>
+    <t>MONITOREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIAR CORREO DE BAJAS DE EXISTENCIA </t>
+  </si>
+  <si>
+    <t>ENVIAR CORREO PROXIMOS A CADUCAR</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>COMPRAS</t>
+  </si>
+  <si>
+    <t>INVENTARIO</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>LISTA DEUDORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTE </t>
+  </si>
+  <si>
+    <t>REPORTES</t>
+  </si>
+  <si>
+    <t>DEVOLUCION</t>
+  </si>
+  <si>
+    <t>GENERAR VENTAS</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>CREAR CLIENTE</t>
+  </si>
+  <si>
+    <t>EDITAR CLIENTE</t>
+  </si>
+  <si>
+    <t>ELIMINAR CLIENTE</t>
+  </si>
+  <si>
+    <t>CONSULTAR COMPRAS</t>
+  </si>
+  <si>
+    <t>CREAR COMPRAS</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CREAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>DAR DE BAJA PROVEEDOR</t>
+  </si>
+  <si>
+    <t>EDITAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>ALTA PROVEEDOR</t>
+  </si>
+  <si>
+    <t>PAGOS</t>
+  </si>
+  <si>
+    <t>VERIFICAR SUBICONOS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTOS</t>
+  </si>
+  <si>
+    <t>SUCURSALES</t>
+  </si>
+  <si>
+    <t>CREAR DEPTO</t>
+  </si>
+  <si>
+    <t>EDITAR DEPTO</t>
+  </si>
+  <si>
+    <t>ELIMINAR DEPTO</t>
+  </si>
+  <si>
+    <t>NUEVO PRODUCTO</t>
+  </si>
+  <si>
+    <t>AGREGAR STOCK</t>
+  </si>
+  <si>
+    <t>PROXIMOS A CADUCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>INVENTARIO RAPIDO</t>
+  </si>
+  <si>
+    <t>ALTA PRODUCTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAJA PRODUCTOS</t>
+  </si>
+  <si>
+    <t>EDITAR PRODUCTOS</t>
+  </si>
+  <si>
+    <t>EDITAR: PRECIO, COSTO Y EXISTENCIA PROD</t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>AGREGAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>ELIMINAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO: EXISTENCIA STOCK</t>
+  </si>
+  <si>
+    <t>SUBPRODUCTO: EXISTENCIA NUEVO</t>
+  </si>
+  <si>
+    <t>OFERTAS</t>
+  </si>
+  <si>
+    <t>NO SE VE NADA EN OFERTA</t>
+  </si>
+  <si>
+    <t>CREAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR DE BAJA SUCURSAL</t>
+  </si>
+  <si>
+    <t>EDITAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>CONSULTAR SUCURSAL</t>
+  </si>
+  <si>
+    <t>AGREGAR CONSULTAR EN TODOS</t>
+  </si>
+  <si>
+    <t>ALTA SUCURSAL</t>
+  </si>
+  <si>
+    <t>AGREGAR EMPLEADOS A SUCURSAL</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEADOS DE LA SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR PERMISOS A EMPLEADOS EN SUCURSAL</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>CREAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>EDITAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>CONSULTAR EMPLEADO</t>
+  </si>
+  <si>
+    <t>ABONAR DEUDAS</t>
+  </si>
+  <si>
+    <t>IMPRIMIR CORTE</t>
+  </si>
+  <si>
+    <t>REPORTE INVENTARIO</t>
+  </si>
+  <si>
+    <t>GENERAR REPORTE</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE INV</t>
+  </si>
+  <si>
+    <t>REPORTE VENTAS</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE VENTAS</t>
+  </si>
+  <si>
+    <t>REPORTE COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>IMPRIMIR REPORTE COMPRA-VENTA</t>
+  </si>
+  <si>
+    <t>MONITOREO BAJOS DE EXISTENCIA</t>
+  </si>
+  <si>
+    <t>MONITOREO FECHAS DE CADUCIDAD</t>
+  </si>
+  <si>
+    <t>CONSULTAR VENTAS</t>
+  </si>
+  <si>
+    <t>CONSULTAR CLIENTES</t>
+  </si>
+  <si>
+    <t>CONSULTAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>CONSULTAR PRODUCTO</t>
+  </si>
+  <si>
+    <t>CONSULTAR OFERTAS</t>
+  </si>
+  <si>
+    <t>CONSULTAR SUBPRODUCTOS</t>
+  </si>
+  <si>
+    <t>mensaje cnofirmacion devolucion</t>
+  </si>
+  <si>
+    <t>limpiar modal venta devolunion</t>
+  </si>
+  <si>
+    <t>cambiar boton depto en crear producto</t>
+  </si>
+  <si>
+    <t>devolucion de productos</t>
+  </si>
+  <si>
+    <t>agregar existencias directo en inventario porque solo esta ajuste de existencia</t>
+  </si>
+  <si>
+    <t>exportar inventarios filtrados o todos</t>
+  </si>
+  <si>
+    <t>EN COMPRA BORRAR TOTAL</t>
+  </si>
+  <si>
+    <t>cargar todas las ofertas y todos los subproductos</t>
+  </si>
+  <si>
+    <t>checar que la eñe se registre bien en la bd tanto en el servidor como local</t>
+  </si>
+  <si>
+    <t>{{ url('/puntoVenta/altaSucursal/` + Suc_Inac[t].id + `')}}</t>
+  </si>
+  <si>
+    <t>editar imagen</t>
+  </si>
+  <si>
+    <t>listar devoluciones</t>
+  </si>
+  <si>
+    <t>Quitar los console en los códigos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checar ventas a credito, ecommerce, </t>
+  </si>
+  <si>
+    <t>Si vas a solicitar prorroga de residencia, solo uta a tu asesor interno una constancia del avance del. Proyecto firmada por el o. Ella, que debes. Anexar a la. Solicitud.</t>
+  </si>
+  <si>
+    <t>Debes incluir el. Formato firmado. Por los 2 asesores (internos y externo) que avale al. Menos 70% del proyecto y el tiempo que necesitas para terminar.</t>
+  </si>
+  <si>
+    <t>Haciendo incapie que deberás pagar la. Colegiatura correspondiente al. Semestre.</t>
+  </si>
+  <si>
+    <t>Saludos</t>
+  </si>
+  <si>
+    <t>mandar mensaje cuando no hay productos en un depto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agregar actualizar existencia </t>
+  </si>
+  <si>
+    <t>confirmar venta</t>
+  </si>
+  <si>
+    <t>mando error en compra: error fechade compra</t>
+  </si>
+  <si>
+    <t>enviarle los datos al formato corte</t>
+  </si>
+  <si>
+    <t>actualizar icono reporet inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cajero corte </t>
+  </si>
+  <si>
+    <t>checar cantidad de ventas al diA CORTE CAJA</t>
+  </si>
+  <si>
+    <t>SE MUERE EN CORTE DE CAJA</t>
+  </si>
+  <si>
+    <t>pedir clave del empleado en los movimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigar pagos con tarjeta de credito </t>
+  </si>
+  <si>
+    <t>terminar compra-venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revisar notifcaciones de productos bajos y proximos a caducar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagos con paypal </t>
+  </si>
+  <si>
+    <t>checar modos de pago para farmacias gi ecommerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perguntar  a marisol si debemos enviar ambos la solicitud de residencia o solo uno. </t>
+  </si>
+  <si>
+    <t>historial de pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguimiento del pedido actual </t>
+  </si>
+  <si>
+    <t>terminar manual de usuario</t>
+  </si>
+  <si>
+    <t>CHECAR BIEN EL BUSCADOR DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>VALIDAR CAMPOS</t>
+  </si>
+  <si>
+    <t>MANDAR MENSAJES DE CONFIRMACION</t>
+  </si>
+  <si>
+    <t>CHECAR MODULOS</t>
+  </si>
+  <si>
+    <t>CHECAR SUBPRODUCTO</t>
+  </si>
+  <si>
+    <t>ACTUALIZAR LOS ICONOS</t>
+  </si>
+  <si>
+    <t>HEBER DEBE CAMBIAR EL STATUS A UNSIGNEINTEGER</t>
+  </si>
+  <si>
+    <t>STOCK O INVENTARIO</t>
+  </si>
+  <si>
+    <t>VERIFICAR:</t>
+  </si>
+  <si>
+    <t>REALIZADOS</t>
+  </si>
+  <si>
+    <t>fpdf</t>
+  </si>
+  <si>
+    <t>https://cmop17.wordpress.com/2012/05/12/imprimir-desde-el-navegador-directamente-a-la-impresora/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>ACTIVIDADES:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPLICACION DE MODULOS   </t>
-  </si>
-  <si>
-    <t>VALIDACION DE CAMPOS    *</t>
-  </si>
-  <si>
-    <t>USUARIO ADMINISTRADOR    OK*</t>
-  </si>
-  <si>
-    <t>USUARIO EMPLEADO    *</t>
-  </si>
-  <si>
-    <t>Alta de empleados por el administrador  OK</t>
-  </si>
-  <si>
-    <t>Alta de sucursal por el administrador   OK</t>
-  </si>
-  <si>
-    <t>Agregar empleados a la nueva sucursal  OK</t>
-  </si>
-  <si>
-    <t>Nuevos departamentos           OK</t>
-  </si>
-  <si>
-    <t>Nuevos productos (Crud)         OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar Curp automáticamente        ***         </t>
-  </si>
-  <si>
-    <t>Presentar acceso            OK</t>
-  </si>
-  <si>
-    <t>Alta de sucursales   OK</t>
-  </si>
-  <si>
-    <t>sucursales CRUD    OK</t>
-  </si>
-  <si>
-    <t>MODULO SECCION DE CONTENIDO</t>
-  </si>
-  <si>
-    <t>MODULO INSCRIPCION CLIENTE</t>
-  </si>
-  <si>
-    <t>MODULO DE MEDIOS DE PAGO</t>
-  </si>
-  <si>
-    <t>MODULO DE HISTORIAL DE PEDIDOS</t>
-  </si>
-  <si>
-    <t>MODULO DE COTIZACION</t>
-  </si>
-  <si>
-    <t>MODULOS DEL ECOMMERCE</t>
-  </si>
-  <si>
-    <t>departamento</t>
-  </si>
-  <si>
-    <t>empleados</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>clientes</t>
-  </si>
-  <si>
-    <t>sucursal</t>
-  </si>
-  <si>
-    <t>proveedor</t>
-  </si>
-  <si>
-    <t>compras</t>
-  </si>
-  <si>
-    <t>ventas</t>
-  </si>
-  <si>
-    <t>inventario</t>
-  </si>
-  <si>
-    <t>lista deudores</t>
-  </si>
-  <si>
-    <t>corte</t>
-  </si>
-  <si>
-    <t>reporte inventario</t>
-  </si>
-  <si>
-    <t>reporte ventas</t>
-  </si>
-  <si>
-    <t>devoluciones</t>
-  </si>
-  <si>
-    <t>pago compras</t>
-  </si>
-  <si>
-    <t>crear, ver</t>
-  </si>
-  <si>
-    <t>crear productos, agregar de stock, alta productos, proximos a caducar, ofertas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crear, agregar a sucursal, ver todos los empleados gral, </t>
-  </si>
-  <si>
-    <t>checar mayusculas</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>pendiente eliminar sucursal porque se le agrega usuario admin</t>
-  </si>
-  <si>
-    <t>ok * eliminar</t>
-  </si>
-  <si>
-    <t>confirmar devolucion</t>
-  </si>
-  <si>
-    <t>El&lt;iminar empleado</t>
-  </si>
-  <si>
-    <t>cantidad de compra</t>
-  </si>
-  <si>
-    <t>cantidad de venta</t>
-  </si>
-  <si>
-    <t>cantidad de ganancia</t>
-  </si>
-  <si>
-    <t>cantidad de inventario por sucursal</t>
-  </si>
-  <si>
-    <t>monto en inventario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cantidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">modificar costos </t>
-  </si>
-  <si>
-    <t>modificar existencias</t>
-  </si>
-  <si>
-    <t>gsnancia mas inventario</t>
-  </si>
-  <si>
-    <t>cargar en ventas productos con status 1</t>
-  </si>
-  <si>
-    <t>proximos a caducar inv</t>
-  </si>
-  <si>
-    <t>ABONO SIN NEGATIVO Y NO EXCEDA LA COMPRA</t>
-  </si>
-  <si>
-    <t>quitar ofertas opc en inventario</t>
-  </si>
-  <si>
-    <t>cargar oferta en inventario</t>
-  </si>
-  <si>
-    <t>total de compra</t>
-  </si>
-  <si>
-    <t>signo de pesos en totales de repportes</t>
-  </si>
-  <si>
-    <t>restar al inventario existencia de productos dados de baja</t>
-  </si>
-  <si>
-    <t>borrar detalle en devolucion</t>
-  </si>
-  <si>
-    <t>PIDIO ASESORA EXTERNA</t>
-  </si>
-  <si>
-    <t>agregar rutas  poner url o que parte estamos</t>
-  </si>
-  <si>
-    <t>REALIZADO</t>
-  </si>
-  <si>
-    <t>ofertas.png EN VENTAS</t>
-  </si>
-  <si>
-    <t>MAYUSCULA DETALLE DEVOLUCION</t>
-  </si>
-  <si>
-    <t>actualiazar a "agregar existencia"</t>
-  </si>
-  <si>
-    <t>verificar metodos corte cajA</t>
-  </si>
-  <si>
-    <t>checar lista deudores corresponda a la sucursal actual y demas vistas tambien</t>
-  </si>
-  <si>
-    <t>entradas nuevos productos: quitar no especificado cuando elija un cajero</t>
-  </si>
-  <si>
-    <t>separar cantidad de cantidad subproductos en inventario?</t>
-  </si>
-  <si>
-    <t>piezas</t>
-  </si>
-  <si>
-    <t>observacion</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>eliminar -&gt; existencia 0</t>
-  </si>
-  <si>
-    <t>perdidas y ganancias en inventario ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precio </t>
-  </si>
-  <si>
-    <t>existencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costo </t>
-  </si>
-  <si>
-    <t>Route::get('eliSubproducto/{id}', [SubproductoController::class,'eliminar']);</t>
-  </si>
-  <si>
-    <t>eistencia menor o igual a piezas EN SUBPRODUCTOS?</t>
-  </si>
-  <si>
-    <t>boton regresa en vistas</t>
-  </si>
-  <si>
-    <t>cambiar texto de reportes nombres</t>
-  </si>
-  <si>
-    <t>testear cargar subproductos</t>
-  </si>
-  <si>
-    <t>lista deudor corregir responsibidad</t>
-  </si>
-  <si>
-    <t>ventas no poner home ni atrás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checar perdidas? </t>
-  </si>
-  <si>
-    <t>agregar icono regresar a subproducto</t>
-  </si>
-  <si>
-    <t>filtrar por tipo inventario</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>verificar las fechas en reporte inv</t>
-  </si>
-  <si>
-    <t>imprimir reportes</t>
-  </si>
-  <si>
-    <t>corregir reporte ventas</t>
-  </si>
-  <si>
-    <t>hacer lo que la doctora quiere</t>
-  </si>
-  <si>
-    <t>imprimir ticket</t>
-  </si>
-  <si>
-    <t>documentacion punto venta avanzar</t>
-  </si>
-  <si>
-    <t>cambiar user admin@gmail.com</t>
-  </si>
-  <si>
-    <t>buscador en agregar de stock</t>
-  </si>
-  <si>
-    <t>ocultar clave</t>
-  </si>
-  <si>
-    <t>corregir vermas acciones con ajax o fetch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el cliente se agrego correctamente </t>
-  </si>
-  <si>
-    <t>FALTA HACER</t>
-  </si>
-  <si>
-    <t>paginate de inventario?</t>
-  </si>
-  <si>
-    <t>paginar</t>
-  </si>
-  <si>
-    <t>$datos['empleados'] = Empleados::paginate(5);</t>
-  </si>
-  <si>
-    <t>{{$empleados-&gt;links() }}</t>
-  </si>
-  <si>
-    <t>REPORTES CORREGIR</t>
-  </si>
-  <si>
-    <t>total ganancia total perdida en inventario</t>
-  </si>
-  <si>
-    <t>confirmar abonos realizados</t>
-  </si>
-  <si>
-    <t>confirmaciones en empleado gral</t>
-  </si>
-  <si>
-    <t>desabilitar boton admon a empleados</t>
-  </si>
-  <si>
-    <t>validar correo en crear empleado</t>
-  </si>
-  <si>
-    <t>vrevisar verificar correo</t>
-  </si>
-  <si>
-    <t>enviar clave por correo: adicionar usuario, correo,</t>
-  </si>
-  <si>
-    <t>farmacias gi envie el correo y no heber</t>
-  </si>
-  <si>
-    <t>mandar mensaje de empleado no ah sido logeado en este sucursal?</t>
-  </si>
-  <si>
-    <t>el administrador no puede seleccionar clientes para verlos</t>
-  </si>
-  <si>
-    <t>EN EL BUSCADOR DE INVENTARIO QUITAR SUBPRODUCTOS Y OFERTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFIRMAR EDITAR PRODUCTO </t>
-  </si>
-  <si>
-    <t>stock de productos poner icono regresar</t>
-  </si>
-  <si>
-    <t>reducir tamaño caducidad de los productos</t>
-  </si>
-  <si>
-    <t>poner ojo en clave cobrar venta?</t>
-  </si>
-  <si>
-    <t>imprimir directo ticket y no generar archivo</t>
-  </si>
-  <si>
-    <t>buscar venta devolucion cambiar nombre empleado administracion bien</t>
-  </si>
-  <si>
-    <t>no calcula devolucion en devolver</t>
-  </si>
-  <si>
-    <t>optimizar codigo</t>
-  </si>
-  <si>
-    <t>MODULOS TESTEAR</t>
-  </si>
-  <si>
-    <t>usuarios</t>
-  </si>
-  <si>
-    <t>clientes -&gt; error</t>
-  </si>
-  <si>
-    <t>proveedores -&gt; ok</t>
-  </si>
-  <si>
-    <t>depto-&gt; OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crud productos </t>
-  </si>
-  <si>
-    <t>agregar de stock</t>
-  </si>
-  <si>
-    <t>alta productos</t>
-  </si>
-  <si>
-    <t>proximos a caducar</t>
-  </si>
-  <si>
-    <t>inventario rapido</t>
-  </si>
-  <si>
-    <t>MODULO</t>
-  </si>
-  <si>
-    <t>REVISADO</t>
-  </si>
-  <si>
-    <t>IMPRIMIR REPORTES</t>
-  </si>
-  <si>
-    <t>IMPRIMIR TICKET DIRECTO</t>
-  </si>
-  <si>
-    <t>CALCULAR GANACIAS</t>
-  </si>
-  <si>
-    <t>CALCULAR PERDIDAS*</t>
-  </si>
-  <si>
-    <t>MONITOREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIAR CORREO DE BAJAS DE EXISTENCIA </t>
-  </si>
-  <si>
-    <t>ENVIAR CORREO PROXIMOS A CADUCAR</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
-  </si>
-  <si>
-    <t>COMPRAS</t>
-  </si>
-  <si>
-    <t>INVENTARIO</t>
-  </si>
-  <si>
-    <t>ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>LISTA DEUDORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTE </t>
-  </si>
-  <si>
-    <t>REPORTES</t>
-  </si>
-  <si>
-    <t>DEVOLUCION</t>
-  </si>
-  <si>
-    <t>GENERAR VENTAS</t>
-  </si>
-  <si>
-    <t>CLIENTES</t>
-  </si>
-  <si>
-    <t>CREAR CLIENTE</t>
-  </si>
-  <si>
-    <t>EDITAR CLIENTE</t>
-  </si>
-  <si>
-    <t>ELIMINAR CLIENTE</t>
-  </si>
-  <si>
-    <t>CONSULTAR COMPRAS</t>
-  </si>
-  <si>
-    <t>CREAR COMPRAS</t>
-  </si>
-  <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>CREAR PROVEEDOR</t>
-  </si>
-  <si>
-    <t>DAR DE BAJA PROVEEDOR</t>
-  </si>
-  <si>
-    <t>EDITAR PROVEEDOR</t>
-  </si>
-  <si>
-    <t>ALTA PROVEEDOR</t>
-  </si>
-  <si>
-    <t>PAGOS</t>
-  </si>
-  <si>
-    <t>VERIFICAR SUBICONOS</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTOS</t>
-  </si>
-  <si>
-    <t>SUCURSALES</t>
-  </si>
-  <si>
-    <t>CREAR DEPTO</t>
-  </si>
-  <si>
-    <t>EDITAR DEPTO</t>
-  </si>
-  <si>
-    <t>ELIMINAR DEPTO</t>
-  </si>
-  <si>
-    <t>NUEVO PRODUCTO</t>
-  </si>
-  <si>
-    <t>AGREGAR STOCK</t>
-  </si>
-  <si>
-    <t>PROXIMOS A CADUCAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>INVENTARIO RAPIDO</t>
-  </si>
-  <si>
-    <t>ALTA PRODUCTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAJA PRODUCTOS</t>
-  </si>
-  <si>
-    <t>EDITAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>EDITAR: PRECIO, COSTO Y EXISTENCIA PROD</t>
-  </si>
-  <si>
-    <t>SUBPRODUCTO</t>
-  </si>
-  <si>
-    <t>AGREGAR SUBPRODUCTO</t>
-  </si>
-  <si>
-    <t>ELIMINAR SUBPRODUCTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">: </t>
-  </si>
-  <si>
-    <t>SUBPRODUCTO: EXISTENCIA STOCK</t>
-  </si>
-  <si>
-    <t>SUBPRODUCTO: EXISTENCIA NUEVO</t>
-  </si>
-  <si>
-    <t>OFERTAS</t>
-  </si>
-  <si>
-    <t>NO SE VE NADA EN OFERTA</t>
-  </si>
-  <si>
-    <t>CREAR SUCURSAL</t>
-  </si>
-  <si>
-    <t>DAR DE BAJA SUCURSAL</t>
-  </si>
-  <si>
-    <t>EDITAR SUCURSAL</t>
-  </si>
-  <si>
-    <t>CONSULTAR SUCURSAL</t>
-  </si>
-  <si>
-    <t>AGREGAR CONSULTAR EN TODOS</t>
-  </si>
-  <si>
-    <t>ALTA SUCURSAL</t>
-  </si>
-  <si>
-    <t>AGREGAR EMPLEADOS A SUCURSAL</t>
-  </si>
-  <si>
-    <t>ELIMINAR EMPLEADOS DE LA SUCURSAL</t>
-  </si>
-  <si>
-    <t>DAR PERMISOS A EMPLEADOS EN SUCURSAL</t>
-  </si>
-  <si>
-    <t>EMPLEADOS</t>
-  </si>
-  <si>
-    <t>CREAR EMPLEADO</t>
-  </si>
-  <si>
-    <t>EDITAR EMPLEADO</t>
-  </si>
-  <si>
-    <t>HACER MANUAL DE USUARIO</t>
-  </si>
-  <si>
-    <t>ELIMINAR EMPLEADO</t>
-  </si>
-  <si>
-    <t>CONSULTAR EMPLEADO</t>
-  </si>
-  <si>
-    <t>ABONAR DEUDAS</t>
-  </si>
-  <si>
-    <t>IMPRIMIR CORTE</t>
-  </si>
-  <si>
-    <t>REPORTE INVENTARIO</t>
-  </si>
-  <si>
-    <t>GENERAR REPORTE</t>
-  </si>
-  <si>
-    <t>IMPRIMIR REPORTE INV</t>
-  </si>
-  <si>
-    <t>REPORTE VENTAS</t>
-  </si>
-  <si>
-    <t>IMPRIMIR REPORTE VENTAS</t>
-  </si>
-  <si>
-    <t>REPORTE COMPRA-VENTA</t>
-  </si>
-  <si>
-    <t>IMPRIMIR REPORTE COMPRA-VENTA</t>
-  </si>
-  <si>
-    <t>MONITOREO BAJOS DE EXISTENCIA</t>
-  </si>
-  <si>
-    <t>MONITOREO FECHAS DE CADUCIDAD</t>
-  </si>
-  <si>
-    <t>CONSULTAR VENTAS</t>
-  </si>
-  <si>
-    <t>CONSULTAR CLIENTES</t>
-  </si>
-  <si>
-    <t>CONSULTAR PROVEEDOR</t>
-  </si>
-  <si>
-    <t>CONSULTAR PRODUCTO</t>
-  </si>
-  <si>
-    <t>CONSULTAR OFERTAS</t>
-  </si>
-  <si>
-    <t>CONSULTAR SUBPRODUCTOS</t>
-  </si>
-  <si>
-    <t>CHECAR CON HEBER FECHAS REPORTES</t>
-  </si>
-  <si>
-    <t>ICONO REGRESAR EN REPORTES</t>
-  </si>
-  <si>
-    <t>cobrar e imprimir ticket quitar en venta</t>
-  </si>
-  <si>
-    <t>mensaje cnofirmacion devolucion</t>
-  </si>
-  <si>
-    <t>limpiar modal venta devolunion</t>
-  </si>
-  <si>
-    <t>cambiar boton depto en crear producto</t>
-  </si>
-  <si>
-    <t>OPTIMIZADOS</t>
-  </si>
-  <si>
-    <t>devolucion</t>
-  </si>
-  <si>
-    <t>validar que se seleccione un cliente en ventas a credito</t>
-  </si>
-  <si>
-    <t>venta a credito se agrega 3 veces</t>
-  </si>
-  <si>
-    <t>lista deudor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en reporte de inventario falta contemplar en entradas: agregar existencia </t>
-  </si>
-  <si>
-    <t>devolucion de productos</t>
-  </si>
-  <si>
-    <t>agregar existencias directo en inventario porque solo esta ajuste de existencia</t>
-  </si>
-  <si>
-    <t>exportar inventarios filtrados o todos</t>
-  </si>
-  <si>
-    <t>EN COMPRA BORRAR TOTAL</t>
-  </si>
-  <si>
-    <t>codigo de barras el producto</t>
-  </si>
-  <si>
-    <t>cargar todas las ofertas y todos los subproductos</t>
-  </si>
-  <si>
-    <t>checar que la eñe se registre bien en la bd tanto en el servidor como local</t>
-  </si>
-  <si>
-    <t>impresión directo de ticket</t>
-  </si>
-  <si>
-    <t>{{ url('/puntoVenta/altaSucursal/` + Suc_Inac[t].id + `')}}</t>
+    <t>action-link</t>
+  </si>
+  <si>
+    <t>imprimir ticket abono deudores.ticket en devolucion</t>
+  </si>
+  <si>
+    <t>testear vistas punto venta. Modulos testear</t>
+  </si>
+  <si>
+    <t>Programar en cierto tiempo los mensajes de confirmacion</t>
+  </si>
+  <si>
+    <t>MODULOS</t>
+  </si>
+  <si>
+    <t>CREAR CLIENTES</t>
+  </si>
+  <si>
+    <t>EDITAR CLIENTES</t>
+  </si>
+  <si>
+    <t>ELIMINAR CLIENTES</t>
+  </si>
+  <si>
+    <t>CREAR DEPTOS</t>
+  </si>
+  <si>
+    <t>CONSULTAR DEPTO</t>
+  </si>
+  <si>
+    <t>ALTA PRODUCTO</t>
+  </si>
+  <si>
+    <t>BAJA PRODUCTOS</t>
+  </si>
+  <si>
+    <t>CONSULTAR PRODUCTOA</t>
+  </si>
+  <si>
+    <t>CREAR SUCURSALES</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEADOS A SUCURSAL</t>
+  </si>
+  <si>
+    <t>DAR PERMISO A EMPLEADOS A SUCURSAL</t>
+  </si>
+  <si>
+    <t>CREAR EMPLEADOS</t>
+  </si>
+  <si>
+    <t>EDITAR EMPLEADOS</t>
+  </si>
+  <si>
+    <t>ELIMINAR EMPLEDOS</t>
+  </si>
+  <si>
+    <t>CONSULTAR EMPLEADOS</t>
+  </si>
+  <si>
+    <t>ABONAR DEUDA</t>
+  </si>
+  <si>
+    <t>CORTE</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIOS DE PAGO </t>
+  </si>
+  <si>
+    <t>QUE DEPARTAMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODAS LAS SUCURSALES. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagos de paypal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotizaciones. </t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>contraentrega</t>
+  </si>
+  <si>
+    <t>INTRODUCCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJETIVO </t>
+  </si>
+  <si>
+    <t>ALCANCE</t>
+  </si>
+  <si>
+    <t>USUARIOS</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>imprimir pos</t>
+  </si>
+  <si>
+    <t>COSTO DEL PRODUCTO SIN PUNTO</t>
+  </si>
+  <si>
+    <t>Precio sin punto</t>
+  </si>
+  <si>
+    <t>corregir existencias</t>
+  </si>
+  <si>
+    <t>corregir insertar productos  por codigo de barras y o nombre error</t>
+  </si>
+  <si>
+    <t>corregir formato de corte de caja</t>
+  </si>
+  <si>
+    <t>terminar reportes diarios como lo quiere la doctora</t>
+  </si>
+  <si>
+    <t>orregir reporte de inventario: solo funciona con salidas</t>
+  </si>
+  <si>
+    <t>terminar los terminos ya agregados en marco teorico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estructurar desarrollo en la documentacion </t>
+  </si>
+  <si>
+    <t>complementar manual de usuario</t>
+  </si>
+  <si>
+    <t>darle responsibidad a vistas del ecomerce</t>
+  </si>
+  <si>
+    <t>impresión directo del ticket</t>
+  </si>
+  <si>
+    <t>vistas de seguimiento de pedido</t>
+  </si>
+  <si>
+    <t>terminar pagos contraentrega</t>
+  </si>
+  <si>
+    <t>pagos paypal</t>
+  </si>
+  <si>
+    <t>vistas del modulo de cotizacion</t>
+  </si>
+  <si>
+    <t>FOTO PERSONAL PANORAMICA: img_1220</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL PARA AGRADECIEMNTO. IMG_1221</t>
+  </si>
+  <si>
+    <t>FOTO FAMILAIR</t>
+  </si>
+  <si>
+    <t>FOTO DE RELAJO</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL REGALIA</t>
+  </si>
+  <si>
+    <t>fotomontaje para familiar</t>
+  </si>
+  <si>
+    <t>carrera</t>
+  </si>
+  <si>
+    <t>confirmar correo de los clientes que se registran en el ecommerce</t>
+  </si>
+  <si>
+    <t>testear envios de correos del modulo monitoreo</t>
+  </si>
+  <si>
+    <t>cargar bd de pruebas y respaldar para trabajar sobre eso</t>
+  </si>
+  <si>
+    <t>checar las fechas de caducidad no los guardo : error fehcas de caducidad</t>
+  </si>
+  <si>
+    <t>tener 10 valores diferentes para las pruebas</t>
+  </si>
+  <si>
+    <t>** probar una vez cargados nuevos datos</t>
   </si>
 </sst>
 </file>
@@ -2135,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32663E2-EF4E-4D3F-B530-587D6611D1E6}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,570 +2902,311 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C909E35-A0DF-4ED4-84E8-206F67377B10}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" t="s">
-        <v>277</v>
-      </c>
-      <c r="M3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="M5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="E6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="M8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" t="s">
-        <v>306</v>
-      </c>
-      <c r="M9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="E9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
-        <v>308</v>
-      </c>
-      <c r="M11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>309</v>
-      </c>
-      <c r="M12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>310</v>
-      </c>
-      <c r="M13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" t="s">
-        <v>282</v>
-      </c>
-      <c r="M14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="E14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
-      </c>
-      <c r="G15" t="s">
-        <v>304</v>
-      </c>
-      <c r="M15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="E15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="E16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" t="s">
-        <v>283</v>
-      </c>
-      <c r="M17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" t="s">
-        <v>311</v>
-      </c>
-      <c r="M18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" t="s">
-        <v>312</v>
-      </c>
-      <c r="M19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>314</v>
-      </c>
-      <c r="M21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" t="s">
-        <v>314</v>
-      </c>
-      <c r="M22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="M23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="M24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="E27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="E28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29" t="s">
-        <v>308</v>
-      </c>
-      <c r="H29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" t="s">
-        <v>305</v>
-      </c>
-      <c r="H30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="E30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>322</v>
-      </c>
-      <c r="H32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>354</v>
-      </c>
-      <c r="F35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
-      <c r="F36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>356</v>
-      </c>
-      <c r="F37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>381</v>
-      </c>
-      <c r="F38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>403</v>
-      </c>
-      <c r="F39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>416</v>
-      </c>
-      <c r="F40" t="s">
-        <v>329</v>
-      </c>
-      <c r="G40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F41" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>437</v>
-      </c>
-      <c r="F42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>332</v>
-      </c>
-      <c r="I43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>438</v>
-      </c>
-      <c r="F45" t="s">
-        <v>334</v>
-      </c>
-      <c r="G45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>439</v>
-      </c>
-      <c r="F46" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1DBA71-CC35-4712-9225-6129654BA061}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6300,8 +6237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E9129-3C53-407B-B8C5-BCDF71442455}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,15 +6249,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6366,22 +6303,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -6391,67 +6328,67 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>232</v>
+      <c r="A25" s="23" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6465,396 +6402,1051 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="105.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="M1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>456</v>
+      </c>
+      <c r="M6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N6" t="s">
+        <v>223</v>
+      </c>
+      <c r="O6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="M8" t="s">
+        <v>231</v>
+      </c>
+      <c r="N8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" t="s">
+        <v>439</v>
+      </c>
+      <c r="M9" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" t="s">
+        <v>458</v>
+      </c>
+      <c r="M11" t="s">
+        <v>228</v>
+      </c>
+      <c r="N11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>493</v>
+      </c>
+      <c r="M13" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" t="s">
+        <v>494</v>
+      </c>
+      <c r="M14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+      <c r="M16" t="s">
+        <v>234</v>
+      </c>
+      <c r="O16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" t="s">
+        <v>495</v>
+      </c>
+      <c r="M17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" t="s">
+        <v>521</v>
+      </c>
+      <c r="M18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" t="s">
+        <v>497</v>
+      </c>
+      <c r="M19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" t="s">
+        <v>499</v>
+      </c>
+      <c r="M20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" t="s">
+        <v>498</v>
+      </c>
+      <c r="M21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" t="s">
+        <v>500</v>
+      </c>
+      <c r="M22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>501</v>
+      </c>
+      <c r="M23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" t="s">
+        <v>502</v>
+      </c>
+      <c r="M24" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>504</v>
+      </c>
+      <c r="M25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" t="s">
+        <v>503</v>
+      </c>
+      <c r="M26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" t="s">
+        <v>519</v>
+      </c>
+      <c r="M27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" t="s">
+        <v>505</v>
+      </c>
+      <c r="M28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" t="s">
+        <v>506</v>
+      </c>
+      <c r="M29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" t="s">
+        <v>507</v>
+      </c>
+      <c r="M30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" t="s">
+        <v>508</v>
+      </c>
+      <c r="M31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" t="s">
+        <v>516</v>
+      </c>
+      <c r="M32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" t="s">
+        <v>517</v>
+      </c>
+      <c r="M33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" t="s">
+        <v>518</v>
+      </c>
+      <c r="M34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" t="s">
+        <v>520</v>
+      </c>
+      <c r="M35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>509</v>
+      </c>
+      <c r="M40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>510</v>
+      </c>
+      <c r="M41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>511</v>
+      </c>
+      <c r="M42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>512</v>
+      </c>
+      <c r="M43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>513</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9512861203</v>
+      </c>
+      <c r="M45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>515</v>
+      </c>
+      <c r="M47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
         <v>206</v>
       </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="F16" s="26" t="s">
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>309</v>
+      </c>
+      <c r="M52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>287</v>
+      </c>
+      <c r="M53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>351</v>
-      </c>
-      <c r="B24" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="M57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" t="s">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>342</v>
-      </c>
-      <c r="F28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>343</v>
-      </c>
-      <c r="F31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>344</v>
-      </c>
-      <c r="F32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>346</v>
-      </c>
-      <c r="F35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>369</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>347</v>
-      </c>
-      <c r="F37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>350</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="72" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
         <v>442</v>
       </c>
-      <c r="F40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
         <v>446</v>
       </c>
-      <c r="F42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" t="s">
-        <v>450</v>
-      </c>
-      <c r="F49" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M145" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>242</v>
-      </c>
-      <c r="D68" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>359</v>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6864,311 +7456,455 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C909E35-A0DF-4ED4-84E8-206F67377B10}">
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274C6A0-2BFB-4A4F-8BEF-39E08C16DE71}">
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F28" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>466</v>
+      </c>
+      <c r="F31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>467</v>
+      </c>
+      <c r="F33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>365</v>
+      </c>
+      <c r="F34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>367</v>
+      </c>
+      <c r="F38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>368</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>379</v>
-      </c>
-      <c r="E14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>432</v>
-      </c>
-      <c r="E15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>380</v>
-      </c>
-      <c r="E19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>382</v>
-      </c>
-      <c r="E21" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>384</v>
-      </c>
-      <c r="E22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>386</v>
-      </c>
-      <c r="E24" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>387</v>
-      </c>
-      <c r="E25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>392</v>
       </c>
-      <c r="E27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>393</v>
       </c>
-      <c r="E28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>394</v>
       </c>
-      <c r="E29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>433</v>
-      </c>
-      <c r="E30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>395</v>
       </c>
-      <c r="E31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>434</v>
+    <row r="82" spans="9:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I82" s="26" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
+++ b/SPRINT 1/CRONOGRAMA VERSUS 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\OneDrive\Documentos\RESIDENCIA\FarmaciaGiDocumentos\SPRINT 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/SPRINT 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E31CF26-E137-4AA8-A5D4-FFC1CDFBF15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="13_ncr:1_{6A2C58A2-E982-43E3-AFBE-98355306293A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1430A37A-8029-4387-B651-D6CDF7C1315F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{DD5450A7-52F7-4CDB-9166-D906894400A3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="495">
   <si>
     <t>Sprint</t>
   </si>
@@ -1529,87 +1529,6 @@
   </si>
   <si>
     <t>Precio sin punto</t>
-  </si>
-  <si>
-    <t>corregir existencias</t>
-  </si>
-  <si>
-    <t>corregir insertar productos  por codigo de barras y o nombre error</t>
-  </si>
-  <si>
-    <t>corregir formato de corte de caja</t>
-  </si>
-  <si>
-    <t>terminar reportes diarios como lo quiere la doctora</t>
-  </si>
-  <si>
-    <t>orregir reporte de inventario: solo funciona con salidas</t>
-  </si>
-  <si>
-    <t>terminar los terminos ya agregados en marco teorico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estructurar desarrollo en la documentacion </t>
-  </si>
-  <si>
-    <t>complementar manual de usuario</t>
-  </si>
-  <si>
-    <t>darle responsibidad a vistas del ecomerce</t>
-  </si>
-  <si>
-    <t>impresión directo del ticket</t>
-  </si>
-  <si>
-    <t>vistas de seguimiento de pedido</t>
-  </si>
-  <si>
-    <t>terminar pagos contraentrega</t>
-  </si>
-  <si>
-    <t>pagos paypal</t>
-  </si>
-  <si>
-    <t>vistas del modulo de cotizacion</t>
-  </si>
-  <si>
-    <t>FOTO PERSONAL PANORAMICA: img_1220</t>
-  </si>
-  <si>
-    <t>INDIVIDUAL PARA AGRADECIEMNTO. IMG_1221</t>
-  </si>
-  <si>
-    <t>FOTO FAMILAIR</t>
-  </si>
-  <si>
-    <t>FOTO DE RELAJO</t>
-  </si>
-  <si>
-    <t>INDIVIDUAL REGALIA</t>
-  </si>
-  <si>
-    <t>fotomontaje para familiar</t>
-  </si>
-  <si>
-    <t>carrera</t>
-  </si>
-  <si>
-    <t>confirmar correo de los clientes que se registran en el ecommerce</t>
-  </si>
-  <si>
-    <t>testear envios de correos del modulo monitoreo</t>
-  </si>
-  <si>
-    <t>cargar bd de pruebas y respaldar para trabajar sobre eso</t>
-  </si>
-  <si>
-    <t>checar las fechas de caducidad no los guardo : error fehcas de caducidad</t>
-  </si>
-  <si>
-    <t>tener 10 valores diferentes para las pruebas</t>
-  </si>
-  <si>
-    <t>** probar una vez cargados nuevos datos</t>
   </si>
 </sst>
 </file>
@@ -6404,14 +6323,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389771CD-3F00-45C6-928B-7954571D8EB7}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="105.42578125" customWidth="1"/>
     <col min="13" max="13" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6601,9 +6520,6 @@
       <c r="A17" t="s">
         <v>325</v>
       </c>
-      <c r="D17" t="s">
-        <v>495</v>
-      </c>
       <c r="M17" t="s">
         <v>265</v>
       </c>
@@ -6612,12 +6528,6 @@
       <c r="A18" t="s">
         <v>326</v>
       </c>
-      <c r="D18" t="s">
-        <v>496</v>
-      </c>
-      <c r="F18" t="s">
-        <v>521</v>
-      </c>
       <c r="M18" t="s">
         <v>418</v>
       </c>
@@ -6626,9 +6536,6 @@
       <c r="A19" t="s">
         <v>351</v>
       </c>
-      <c r="D19" t="s">
-        <v>497</v>
-      </c>
       <c r="M19" t="s">
         <v>424</v>
       </c>
@@ -6637,9 +6544,6 @@
       <c r="A20" t="s">
         <v>373</v>
       </c>
-      <c r="D20" t="s">
-        <v>499</v>
-      </c>
       <c r="M20" t="s">
         <v>426</v>
       </c>
@@ -6648,9 +6552,6 @@
       <c r="A21" t="s">
         <v>410</v>
       </c>
-      <c r="D21" t="s">
-        <v>498</v>
-      </c>
       <c r="M21" t="s">
         <v>427</v>
       </c>
@@ -6659,9 +6560,6 @@
       <c r="A22" t="s">
         <v>413</v>
       </c>
-      <c r="D22" t="s">
-        <v>500</v>
-      </c>
       <c r="M22" t="s">
         <v>428</v>
       </c>
@@ -6670,9 +6568,6 @@
       <c r="A23" t="s">
         <v>435</v>
       </c>
-      <c r="D23" t="s">
-        <v>501</v>
-      </c>
       <c r="M23" t="s">
         <v>429</v>
       </c>
@@ -6681,9 +6576,6 @@
       <c r="A24" t="s">
         <v>327</v>
       </c>
-      <c r="D24" t="s">
-        <v>502</v>
-      </c>
       <c r="M24" t="s">
         <v>430</v>
       </c>
@@ -6692,9 +6584,6 @@
       <c r="A25" t="s">
         <v>328</v>
       </c>
-      <c r="D25" t="s">
-        <v>504</v>
-      </c>
       <c r="M25" t="s">
         <v>242</v>
       </c>
@@ -6703,9 +6592,6 @@
       <c r="A26" t="s">
         <v>329</v>
       </c>
-      <c r="D26" t="s">
-        <v>503</v>
-      </c>
       <c r="M26" t="s">
         <v>264</v>
       </c>
@@ -6714,9 +6600,6 @@
       <c r="A27" t="s">
         <v>378</v>
       </c>
-      <c r="D27" t="s">
-        <v>519</v>
-      </c>
       <c r="M27" t="s">
         <v>245</v>
       </c>
@@ -6725,9 +6608,6 @@
       <c r="A28" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D28" t="s">
-        <v>505</v>
-      </c>
       <c r="M28" t="s">
         <v>282</v>
       </c>
@@ -6736,9 +6616,6 @@
       <c r="A29" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D29" t="s">
-        <v>506</v>
-      </c>
       <c r="M29" t="s">
         <v>272</v>
       </c>
@@ -6747,9 +6624,6 @@
       <c r="A30" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D30" t="s">
-        <v>507</v>
-      </c>
       <c r="M30" t="s">
         <v>286</v>
       </c>
@@ -6758,9 +6632,6 @@
       <c r="A31" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D31" t="s">
-        <v>508</v>
-      </c>
       <c r="M31" t="s">
         <v>287</v>
       </c>
@@ -6769,9 +6640,6 @@
       <c r="A32" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D32" t="s">
-        <v>516</v>
-      </c>
       <c r="M32" t="s">
         <v>288</v>
       </c>
@@ -6780,9 +6648,6 @@
       <c r="A33" t="s">
         <v>291</v>
       </c>
-      <c r="D33" t="s">
-        <v>517</v>
-      </c>
       <c r="M33" t="s">
         <v>289</v>
       </c>
@@ -6791,9 +6656,6 @@
       <c r="A34" t="s">
         <v>457</v>
       </c>
-      <c r="D34" t="s">
-        <v>518</v>
-      </c>
       <c r="M34" t="s">
         <v>269</v>
       </c>
@@ -6802,9 +6664,6 @@
       <c r="A35" t="s">
         <v>441</v>
       </c>
-      <c r="D35" t="s">
-        <v>520</v>
-      </c>
       <c r="M35" t="s">
         <v>285</v>
       </c>
@@ -6842,62 +6701,36 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>509</v>
-      </c>
       <c r="M40" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>510</v>
-      </c>
       <c r="M41" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>511</v>
-      </c>
       <c r="M42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>512</v>
-      </c>
       <c r="M43" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>513</v>
-      </c>
       <c r="M44" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9512861203</v>
-      </c>
       <c r="M45" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>514</v>
-      </c>
-    </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>515</v>
-      </c>
       <c r="M47" t="s">
         <v>204</v>
       </c>
